--- a/data/SRM/2017-07-18-Predicted-SRM-Retention-Times-LHS.xlsx
+++ b/data/SRM/2017-07-18-Predicted-SRM-Retention-Times-LHS.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28331"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16300" windowHeight="15460" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2017-07-18-RT-Predictions" sheetId="1" r:id="rId1"/>
     <sheet name="2017-07-18_DIA-PRTC-RT.csv" sheetId="3" r:id="rId2"/>
     <sheet name="2017-07-18-SRM-PRTC-RT." sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2017-07-18_DIA-PRTC-RT.csv'!$G$1:$G$248</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4841" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="151">
   <si>
     <t>PRTC</t>
   </si>
@@ -474,6 +475,12 @@
   <si>
     <t>Peak @ 23.7</t>
   </si>
+  <si>
+    <t>PEPTIDE</t>
+  </si>
+  <si>
+    <t>PREDICTED RT</t>
+  </si>
 </sst>
 </file>
 
@@ -659,7 +666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -676,6 +683,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -794,7 +803,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="96">
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -842,6 +851,7 @@
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -888,6 +898,7 @@
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1126,11 +1137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114579352"/>
-        <c:axId val="2114586152"/>
+        <c:axId val="1814010232"/>
+        <c:axId val="-2094264232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114579352"/>
+        <c:axId val="1814010232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80.0"/>
@@ -1216,12 +1227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114586152"/>
+        <c:crossAx val="-2094264232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114586152"/>
+        <c:axId val="-2094264232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35.0"/>
@@ -1302,7 +1313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114579352"/>
+        <c:crossAx val="1814010232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2197,7 +2208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2207,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q704"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P3" sqref="O3:P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2227,8 +2238,8 @@
     <col min="17" max="17" width="86.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="31.5">
+    <row r="1" spans="1:17" ht="16" thickBot="1"/>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="30">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3561,7 +3572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="8:17" ht="16.5" thickBot="1">
+    <row r="41" spans="8:17" ht="16" thickBot="1">
       <c r="H41" t="s">
         <v>13</v>
       </c>
@@ -20665,7 +20676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" hidden="1">
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -20682,7 +20693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" hidden="1">
+    <row r="5" spans="1:8" hidden="1">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -20699,7 +20710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" hidden="1">
+    <row r="6" spans="1:8" hidden="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -20716,7 +20727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" hidden="1">
+    <row r="7" spans="1:8" hidden="1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -20733,7 +20744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" hidden="1">
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -20750,7 +20761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" hidden="1">
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -20767,7 +20778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" hidden="1">
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -20784,7 +20795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" hidden="1">
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -20801,7 +20812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" hidden="1">
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -20818,7 +20829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" hidden="1">
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -20835,7 +20846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" hidden="1">
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -20852,7 +20863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" hidden="1">
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -20869,7 +20880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" hidden="1">
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -20886,7 +20897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" hidden="1">
+    <row r="17" spans="1:8" hidden="1">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -20903,7 +20914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" hidden="1">
+    <row r="18" spans="1:8" hidden="1">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -20920,7 +20931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" hidden="1">
+    <row r="19" spans="1:8" hidden="1">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -20937,7 +20948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" hidden="1">
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -20971,7 +20982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" hidden="1">
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -20988,7 +20999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" hidden="1">
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -21005,7 +21016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" hidden="1">
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -21022,7 +21033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" hidden="1">
+    <row r="25" spans="1:8" hidden="1">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -21039,7 +21050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" hidden="1">
+    <row r="26" spans="1:8" hidden="1">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -21056,7 +21067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" hidden="1">
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -21073,7 +21084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" hidden="1">
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -21090,7 +21101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" hidden="1">
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -21107,7 +21118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75" hidden="1">
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -21124,7 +21135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" hidden="1">
+    <row r="31" spans="1:8" hidden="1">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -21141,7 +21152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" hidden="1">
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -21155,7 +21166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" hidden="1">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -21169,7 +21180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -21183,7 +21194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" hidden="1">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -21197,7 +21208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -21211,7 +21222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -21225,7 +21236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -21253,7 +21264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1">
+    <row r="40" spans="1:8" hidden="1">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -21267,7 +21278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1">
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -21281,7 +21292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -21295,7 +21306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -21309,7 +21320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -21323,7 +21334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -21337,7 +21348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -21351,7 +21362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" hidden="1">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -21365,7 +21376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" hidden="1">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -21379,7 +21390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1">
+    <row r="49" spans="1:8" hidden="1">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -21393,7 +21404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1">
+    <row r="50" spans="1:8" hidden="1">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -21407,7 +21418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" hidden="1">
+    <row r="51" spans="1:8" hidden="1">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -21421,7 +21432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1">
+    <row r="52" spans="1:8" hidden="1">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -21435,7 +21446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1">
+    <row r="53" spans="1:8" hidden="1">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -21449,7 +21460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1">
+    <row r="54" spans="1:8" hidden="1">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -21463,7 +21474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1">
+    <row r="55" spans="1:8" hidden="1">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -21477,7 +21488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1">
+    <row r="56" spans="1:8" hidden="1">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -21505,7 +21516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1">
+    <row r="58" spans="1:8" hidden="1">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -21519,7 +21530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1">
+    <row r="59" spans="1:8" hidden="1">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -21533,7 +21544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1">
+    <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -21547,7 +21558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1">
+    <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -21561,7 +21572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1">
+    <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -21575,7 +21586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" hidden="1">
+    <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -21589,7 +21600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" hidden="1">
+    <row r="64" spans="1:8" hidden="1">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -21603,7 +21614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" hidden="1">
+    <row r="65" spans="1:8" hidden="1">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -21617,7 +21628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1">
+    <row r="66" spans="1:8" hidden="1">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -21631,7 +21642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1">
+    <row r="67" spans="1:8" hidden="1">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -21645,7 +21656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1">
+    <row r="68" spans="1:8" hidden="1">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -21659,7 +21670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" hidden="1">
+    <row r="69" spans="1:8" hidden="1">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -21673,7 +21684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1">
+    <row r="70" spans="1:8" hidden="1">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -21687,7 +21698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" hidden="1">
+    <row r="71" spans="1:8" hidden="1">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -21701,7 +21712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1">
+    <row r="72" spans="1:8" hidden="1">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -21715,7 +21726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" hidden="1">
+    <row r="73" spans="1:8" hidden="1">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -21729,7 +21740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1">
+    <row r="74" spans="1:8" hidden="1">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -21757,7 +21768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" hidden="1">
+    <row r="76" spans="1:8" hidden="1">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -21771,7 +21782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" hidden="1">
+    <row r="77" spans="1:8" hidden="1">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -21785,7 +21796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1">
+    <row r="78" spans="1:8" hidden="1">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -21799,7 +21810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1">
+    <row r="79" spans="1:8" hidden="1">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -21813,7 +21824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1">
+    <row r="80" spans="1:8" hidden="1">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -21827,7 +21838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1">
+    <row r="81" spans="1:8" hidden="1">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -21841,7 +21852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1">
+    <row r="82" spans="1:8" hidden="1">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -21855,7 +21866,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1">
+    <row r="83" spans="1:8" hidden="1">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -21869,7 +21880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1">
+    <row r="84" spans="1:8" hidden="1">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -21883,7 +21894,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1">
+    <row r="85" spans="1:8" hidden="1">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -21897,7 +21908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1">
+    <row r="86" spans="1:8" hidden="1">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -21911,7 +21922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1">
+    <row r="87" spans="1:8" hidden="1">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -21925,7 +21936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1">
+    <row r="88" spans="1:8" hidden="1">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -21939,7 +21950,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1">
+    <row r="89" spans="1:8" hidden="1">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -21953,7 +21964,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1">
+    <row r="90" spans="1:8" hidden="1">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -21967,7 +21978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1">
+    <row r="91" spans="1:8" hidden="1">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -21981,7 +21992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1">
+    <row r="92" spans="1:8" hidden="1">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -22009,7 +22020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" hidden="1">
+    <row r="94" spans="1:8" hidden="1">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -22023,7 +22034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1">
+    <row r="95" spans="1:8" hidden="1">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -22037,7 +22048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" hidden="1">
+    <row r="96" spans="1:8" hidden="1">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -22051,7 +22062,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" hidden="1">
+    <row r="97" spans="1:8" hidden="1">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -22065,7 +22076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" hidden="1">
+    <row r="98" spans="1:8" hidden="1">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -22079,7 +22090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" hidden="1">
+    <row r="99" spans="1:8" hidden="1">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -22093,7 +22104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" hidden="1">
+    <row r="100" spans="1:8" hidden="1">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -22107,7 +22118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" hidden="1">
+    <row r="101" spans="1:8" hidden="1">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -22121,7 +22132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" hidden="1">
+    <row r="102" spans="1:8" hidden="1">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -22135,7 +22146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" hidden="1">
+    <row r="103" spans="1:8" hidden="1">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -22149,7 +22160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" hidden="1">
+    <row r="104" spans="1:8" hidden="1">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -22163,7 +22174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" hidden="1">
+    <row r="105" spans="1:8" hidden="1">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -22177,7 +22188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" hidden="1">
+    <row r="106" spans="1:8" hidden="1">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -22191,7 +22202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" hidden="1">
+    <row r="107" spans="1:8" hidden="1">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -22205,7 +22216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" hidden="1">
+    <row r="108" spans="1:8" hidden="1">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -22219,7 +22230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" hidden="1">
+    <row r="109" spans="1:8" hidden="1">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -22233,7 +22244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" hidden="1">
+    <row r="110" spans="1:8" hidden="1">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -22261,7 +22272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" hidden="1">
+    <row r="112" spans="1:8" hidden="1">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -22275,7 +22286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" hidden="1">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -22289,7 +22300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" hidden="1">
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -22303,7 +22314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" hidden="1">
+    <row r="115" spans="1:8" hidden="1">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -22317,7 +22328,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1">
+    <row r="116" spans="1:8" hidden="1">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -22331,7 +22342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1">
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -22345,7 +22356,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" hidden="1">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -22359,7 +22370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1">
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -22373,7 +22384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" hidden="1">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -22387,7 +22398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1">
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -22401,7 +22412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1">
+    <row r="122" spans="1:8" hidden="1">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -22415,7 +22426,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" hidden="1">
+    <row r="123" spans="1:8" hidden="1">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -22429,7 +22440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15.75" hidden="1">
+    <row r="124" spans="1:8" hidden="1">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -22443,7 +22454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" hidden="1">
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -22457,7 +22468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1">
+    <row r="126" spans="1:8" hidden="1">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -22471,7 +22482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1">
+    <row r="127" spans="1:8" hidden="1">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -22485,7 +22496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1">
+    <row r="128" spans="1:8" hidden="1">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -22513,7 +22524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15.75" hidden="1">
+    <row r="130" spans="1:8" hidden="1">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -22527,7 +22538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15.75" hidden="1">
+    <row r="131" spans="1:8" hidden="1">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -22541,7 +22552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15.75" hidden="1">
+    <row r="132" spans="1:8" hidden="1">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -22555,7 +22566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15.75" hidden="1">
+    <row r="133" spans="1:8" hidden="1">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -22569,7 +22580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="15.75" hidden="1">
+    <row r="134" spans="1:8" hidden="1">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -22583,7 +22594,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="15.75" hidden="1">
+    <row r="135" spans="1:8" hidden="1">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -22597,7 +22608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="15.75" hidden="1">
+    <row r="136" spans="1:8" hidden="1">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -22611,7 +22622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="15.75" hidden="1">
+    <row r="137" spans="1:8" hidden="1">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -22625,7 +22636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" hidden="1">
+    <row r="138" spans="1:8" hidden="1">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -22639,7 +22650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="15.75" hidden="1">
+    <row r="139" spans="1:8" hidden="1">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -22653,7 +22664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="15.75" hidden="1">
+    <row r="140" spans="1:8" hidden="1">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -22667,7 +22678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="15.75" hidden="1">
+    <row r="141" spans="1:8" hidden="1">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -22681,7 +22692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.75" hidden="1">
+    <row r="142" spans="1:8" hidden="1">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -22695,7 +22706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="15.75" hidden="1">
+    <row r="143" spans="1:8" hidden="1">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -22709,7 +22720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="15.75" hidden="1">
+    <row r="144" spans="1:8" hidden="1">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -22723,7 +22734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15.75" hidden="1">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -22737,7 +22748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15.75" hidden="1">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -22765,7 +22776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15.75" hidden="1">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -22779,7 +22790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15.75" hidden="1">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -22793,7 +22804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15.75" hidden="1">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -22807,7 +22818,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75" hidden="1">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -22821,7 +22832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15.75" hidden="1">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -22835,7 +22846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="15.75" hidden="1">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153" t="s">
         <v>20</v>
       </c>
@@ -22849,7 +22860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15.75" hidden="1">
+    <row r="154" spans="1:8" hidden="1">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -22863,7 +22874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15.75" hidden="1">
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -22877,7 +22888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15.75" hidden="1">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156" t="s">
         <v>20</v>
       </c>
@@ -22891,7 +22902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15.75" hidden="1">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157" t="s">
         <v>20</v>
       </c>
@@ -22905,7 +22916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15.75" hidden="1">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -22919,7 +22930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15.75" hidden="1">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159" t="s">
         <v>20</v>
       </c>
@@ -22933,7 +22944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15.75" hidden="1">
+    <row r="160" spans="1:8" hidden="1">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -22947,7 +22958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15.75" hidden="1">
+    <row r="161" spans="1:8" hidden="1">
       <c r="A161" t="s">
         <v>20</v>
       </c>
@@ -22961,7 +22972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15.75" hidden="1">
+    <row r="162" spans="1:8" hidden="1">
       <c r="A162" t="s">
         <v>20</v>
       </c>
@@ -22975,7 +22986,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15.75" hidden="1">
+    <row r="163" spans="1:8" hidden="1">
       <c r="A163" t="s">
         <v>20</v>
       </c>
@@ -22989,7 +23000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="15.75" hidden="1">
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -23017,7 +23028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15.75" hidden="1">
+    <row r="166" spans="1:8" hidden="1">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -23031,7 +23042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15.75" hidden="1">
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -23045,7 +23056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15.75" hidden="1">
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -23059,7 +23070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="15.75" hidden="1">
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -23073,7 +23084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15.75" hidden="1">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -23087,7 +23098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15.75" hidden="1">
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -23101,7 +23112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15.75" hidden="1">
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -23115,7 +23126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15.75" hidden="1">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -23129,7 +23140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15.75" hidden="1">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -23143,7 +23154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15.75" hidden="1">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -23157,7 +23168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="15.75" hidden="1">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -23171,7 +23182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="15.75" hidden="1">
+    <row r="177" spans="1:8" hidden="1">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -23185,7 +23196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1">
+    <row r="178" spans="1:8" hidden="1">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -23199,7 +23210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1">
+    <row r="179" spans="1:8" hidden="1">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -23213,7 +23224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15.75" hidden="1">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -23227,7 +23238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="15.75" hidden="1">
+    <row r="181" spans="1:8" hidden="1">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -23241,7 +23252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="15.75" hidden="1">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -23269,7 +23280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="15.75" hidden="1">
+    <row r="184" spans="1:8" hidden="1">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -23283,7 +23294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="15.75" hidden="1">
+    <row r="185" spans="1:8" hidden="1">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -23297,7 +23308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="15.75" hidden="1">
+    <row r="186" spans="1:8" hidden="1">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -23311,7 +23322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="15.75" hidden="1">
+    <row r="187" spans="1:8" hidden="1">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -23325,7 +23336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" hidden="1">
+    <row r="188" spans="1:8" hidden="1">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -23339,7 +23350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" hidden="1">
+    <row r="189" spans="1:8" hidden="1">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -23353,7 +23364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="15.75" hidden="1">
+    <row r="190" spans="1:8" hidden="1">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -23367,7 +23378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="15.75" hidden="1">
+    <row r="191" spans="1:8" hidden="1">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -23381,7 +23392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" hidden="1">
+    <row r="192" spans="1:8" hidden="1">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -23395,7 +23406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" hidden="1">
+    <row r="193" spans="1:8" hidden="1">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -23409,7 +23420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="15.75" hidden="1">
+    <row r="194" spans="1:8" hidden="1">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -23423,7 +23434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="15.75" hidden="1">
+    <row r="195" spans="1:8" hidden="1">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -23437,7 +23448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" hidden="1">
+    <row r="196" spans="1:8" hidden="1">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -23451,7 +23462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="15.75" hidden="1">
+    <row r="197" spans="1:8" hidden="1">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -23465,7 +23476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="15.75" hidden="1">
+    <row r="198" spans="1:8" hidden="1">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -23479,7 +23490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="15.75" hidden="1">
+    <row r="199" spans="1:8" hidden="1">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -23493,7 +23504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="15.75" hidden="1">
+    <row r="200" spans="1:8" hidden="1">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -23521,7 +23532,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="15.75" hidden="1">
+    <row r="202" spans="1:8" hidden="1">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -23535,7 +23546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" hidden="1">
+    <row r="203" spans="1:8" hidden="1">
       <c r="A203" t="s">
         <v>24</v>
       </c>
@@ -23549,7 +23560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" hidden="1">
+    <row r="204" spans="1:8" hidden="1">
       <c r="A204" t="s">
         <v>24</v>
       </c>
@@ -23563,7 +23574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15.75" hidden="1">
+    <row r="205" spans="1:8" hidden="1">
       <c r="A205" t="s">
         <v>24</v>
       </c>
@@ -23577,7 +23588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="15.75" hidden="1">
+    <row r="206" spans="1:8" hidden="1">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -23591,7 +23602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15.75" hidden="1">
+    <row r="207" spans="1:8" hidden="1">
       <c r="A207" t="s">
         <v>24</v>
       </c>
@@ -23605,7 +23616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="15.75" hidden="1">
+    <row r="208" spans="1:8" hidden="1">
       <c r="A208" t="s">
         <v>24</v>
       </c>
@@ -23619,7 +23630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="15.75" hidden="1">
+    <row r="209" spans="1:8" hidden="1">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -23633,7 +23644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15.75" hidden="1">
+    <row r="210" spans="1:8" hidden="1">
       <c r="A210" t="s">
         <v>24</v>
       </c>
@@ -23647,7 +23658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="15.75" hidden="1">
+    <row r="211" spans="1:8" hidden="1">
       <c r="A211" t="s">
         <v>24</v>
       </c>
@@ -23661,7 +23672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15.75" hidden="1">
+    <row r="212" spans="1:8" hidden="1">
       <c r="A212" t="s">
         <v>24</v>
       </c>
@@ -23675,7 +23686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="15.75" hidden="1">
+    <row r="213" spans="1:8" hidden="1">
       <c r="A213" t="s">
         <v>24</v>
       </c>
@@ -23689,7 +23700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15.75" hidden="1">
+    <row r="214" spans="1:8" hidden="1">
       <c r="A214" t="s">
         <v>24</v>
       </c>
@@ -23703,7 +23714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" hidden="1">
+    <row r="215" spans="1:8" hidden="1">
       <c r="A215" t="s">
         <v>24</v>
       </c>
@@ -23717,7 +23728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" hidden="1">
+    <row r="216" spans="1:8" hidden="1">
       <c r="A216" t="s">
         <v>24</v>
       </c>
@@ -23731,7 +23742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" hidden="1">
+    <row r="217" spans="1:8" hidden="1">
       <c r="A217" t="s">
         <v>24</v>
       </c>
@@ -23745,7 +23756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="15.75" hidden="1">
+    <row r="218" spans="1:8" hidden="1">
       <c r="A218" t="s">
         <v>25</v>
       </c>
@@ -23773,7 +23784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15.75" hidden="1">
+    <row r="220" spans="1:8" hidden="1">
       <c r="A220" t="s">
         <v>25</v>
       </c>
@@ -23787,7 +23798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="15.75" hidden="1">
+    <row r="221" spans="1:8" hidden="1">
       <c r="A221" t="s">
         <v>25</v>
       </c>
@@ -23801,7 +23812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="15.75" hidden="1">
+    <row r="222" spans="1:8" hidden="1">
       <c r="A222" t="s">
         <v>25</v>
       </c>
@@ -23815,7 +23826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="15.75" hidden="1">
+    <row r="223" spans="1:8" hidden="1">
       <c r="A223" t="s">
         <v>25</v>
       </c>
@@ -23829,7 +23840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="15.75" hidden="1">
+    <row r="224" spans="1:8" hidden="1">
       <c r="A224" t="s">
         <v>25</v>
       </c>
@@ -23843,7 +23854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="15.75" hidden="1">
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -23857,7 +23868,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="15.75" hidden="1">
+    <row r="226" spans="1:8" hidden="1">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -23871,7 +23882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="15.75" hidden="1">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -23885,7 +23896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="15.75" hidden="1">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -23899,7 +23910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="15.75" hidden="1">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -23913,7 +23924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="15.75" hidden="1">
+    <row r="230" spans="1:8" hidden="1">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -23927,7 +23938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="15.75" hidden="1">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" t="s">
         <v>25</v>
       </c>
@@ -23941,7 +23952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="15.75" hidden="1">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" t="s">
         <v>25</v>
       </c>
@@ -23955,7 +23966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="15.75" hidden="1">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" t="s">
         <v>25</v>
       </c>
@@ -23969,7 +23980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="15.75" hidden="1">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" t="s">
         <v>25</v>
       </c>
@@ -23983,7 +23994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="15.75" hidden="1">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" t="s">
         <v>25</v>
       </c>
@@ -23997,7 +24008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="15.75" hidden="1">
+    <row r="236" spans="1:8" hidden="1">
       <c r="A236" t="s">
         <v>27</v>
       </c>
@@ -24025,7 +24036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="15.75" hidden="1">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" t="s">
         <v>27</v>
       </c>
@@ -24039,7 +24050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="15.75" hidden="1">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" t="s">
         <v>27</v>
       </c>
@@ -24053,7 +24064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" hidden="1">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" t="s">
         <v>27</v>
       </c>
@@ -24067,7 +24078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" hidden="1">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -24081,7 +24092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="15.75" hidden="1">
+    <row r="242" spans="1:8" hidden="1">
       <c r="A242" t="s">
         <v>27</v>
       </c>
@@ -24095,7 +24106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="15.75" hidden="1">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" t="s">
         <v>27</v>
       </c>
@@ -24109,7 +24120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="15.75" hidden="1">
+    <row r="244" spans="1:8" hidden="1">
       <c r="A244" t="s">
         <v>27</v>
       </c>
@@ -24123,7 +24134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="15.75" hidden="1">
+    <row r="245" spans="1:8" hidden="1">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -24137,7 +24148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="15.75" hidden="1">
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -24151,7 +24162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="15.75" hidden="1">
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" t="s">
         <v>27</v>
       </c>
@@ -24165,7 +24176,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" hidden="1">
+    <row r="248" spans="1:8" hidden="1">
       <c r="A248" t="s">
         <v>27</v>
       </c>
@@ -24179,7 +24190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" hidden="1">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" t="s">
         <v>27</v>
       </c>
@@ -24190,7 +24201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" hidden="1">
+    <row r="250" spans="1:8" hidden="1">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -24201,7 +24212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" hidden="1">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" t="s">
         <v>27</v>
       </c>
@@ -24212,7 +24223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" hidden="1">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" t="s">
         <v>27</v>
       </c>
@@ -24223,7 +24234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="15.75" hidden="1">
+    <row r="253" spans="1:8" hidden="1">
       <c r="A253" t="s">
         <v>27</v>
       </c>
@@ -24234,7 +24245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="15.75" hidden="1">
+    <row r="254" spans="1:8" hidden="1">
       <c r="A254" t="s">
         <v>28</v>
       </c>
@@ -24256,7 +24267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="15.75" hidden="1">
+    <row r="256" spans="1:8" hidden="1">
       <c r="A256" t="s">
         <v>28</v>
       </c>
@@ -24267,7 +24278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="15.75" hidden="1">
+    <row r="257" spans="1:8" hidden="1">
       <c r="A257" t="s">
         <v>28</v>
       </c>
@@ -24278,7 +24289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="15.75" hidden="1">
+    <row r="258" spans="1:8" hidden="1">
       <c r="A258" t="s">
         <v>28</v>
       </c>
@@ -24289,7 +24300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="15.75" hidden="1">
+    <row r="259" spans="1:8" hidden="1">
       <c r="A259" t="s">
         <v>28</v>
       </c>
@@ -24300,7 +24311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="15.75" hidden="1">
+    <row r="260" spans="1:8" hidden="1">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -24311,7 +24322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="15.75" hidden="1">
+    <row r="261" spans="1:8" hidden="1">
       <c r="A261" t="s">
         <v>28</v>
       </c>
@@ -24322,7 +24333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="15.75" hidden="1">
+    <row r="262" spans="1:8" hidden="1">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -24333,7 +24344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="15.75" hidden="1">
+    <row r="263" spans="1:8" hidden="1">
       <c r="A263" t="s">
         <v>28</v>
       </c>
@@ -24344,7 +24355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="15.75" hidden="1">
+    <row r="264" spans="1:8" hidden="1">
       <c r="A264" t="s">
         <v>28</v>
       </c>
@@ -24355,7 +24366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="15.75" hidden="1">
+    <row r="265" spans="1:8" hidden="1">
       <c r="A265" t="s">
         <v>28</v>
       </c>
@@ -24366,7 +24377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="15.75" hidden="1">
+    <row r="266" spans="1:8" hidden="1">
       <c r="A266" t="s">
         <v>28</v>
       </c>
@@ -24377,7 +24388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="15.75" hidden="1">
+    <row r="267" spans="1:8" hidden="1">
       <c r="A267" t="s">
         <v>28</v>
       </c>
@@ -24388,7 +24399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="15.75" hidden="1">
+    <row r="268" spans="1:8" hidden="1">
       <c r="A268" t="s">
         <v>28</v>
       </c>
@@ -24399,7 +24410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="15.75" hidden="1">
+    <row r="269" spans="1:8" hidden="1">
       <c r="A269" t="s">
         <v>28</v>
       </c>
@@ -24410,7 +24421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="15.75" hidden="1">
+    <row r="270" spans="1:8" hidden="1">
       <c r="A270" t="s">
         <v>28</v>
       </c>
@@ -24421,7 +24432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="15.75" hidden="1">
+    <row r="271" spans="1:8" hidden="1">
       <c r="A271" t="s">
         <v>28</v>
       </c>
@@ -24432,7 +24443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="15.75" hidden="1">
+    <row r="272" spans="1:8" hidden="1">
       <c r="A272" t="s">
         <v>29</v>
       </c>
@@ -24454,7 +24465,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="15.75" hidden="1">
+    <row r="274" spans="1:8" hidden="1">
       <c r="A274" t="s">
         <v>29</v>
       </c>
@@ -24465,7 +24476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="15.75" hidden="1">
+    <row r="275" spans="1:8" hidden="1">
       <c r="A275" t="s">
         <v>29</v>
       </c>
@@ -24476,7 +24487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="15.75" hidden="1">
+    <row r="276" spans="1:8" hidden="1">
       <c r="A276" t="s">
         <v>29</v>
       </c>
@@ -24487,7 +24498,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="15.75" hidden="1">
+    <row r="277" spans="1:8" hidden="1">
       <c r="A277" t="s">
         <v>29</v>
       </c>
@@ -24498,7 +24509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="15.75" hidden="1">
+    <row r="278" spans="1:8" hidden="1">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -24509,7 +24520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="15.75" hidden="1">
+    <row r="279" spans="1:8" hidden="1">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -24520,7 +24531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="15.75" hidden="1">
+    <row r="280" spans="1:8" hidden="1">
       <c r="A280" t="s">
         <v>29</v>
       </c>
@@ -24531,7 +24542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="15.75" hidden="1">
+    <row r="281" spans="1:8" hidden="1">
       <c r="A281" t="s">
         <v>29</v>
       </c>
@@ -24542,7 +24553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="15.75" hidden="1">
+    <row r="282" spans="1:8" hidden="1">
       <c r="A282" t="s">
         <v>29</v>
       </c>
@@ -24553,7 +24564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="15.75" hidden="1">
+    <row r="283" spans="1:8" hidden="1">
       <c r="A283" t="s">
         <v>29</v>
       </c>
@@ -24564,7 +24575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="15.75" hidden="1">
+    <row r="284" spans="1:8" hidden="1">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -24575,7 +24586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="15.75" hidden="1">
+    <row r="285" spans="1:8" hidden="1">
       <c r="A285" t="s">
         <v>29</v>
       </c>
@@ -24586,7 +24597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="15.75" hidden="1">
+    <row r="286" spans="1:8" hidden="1">
       <c r="A286" t="s">
         <v>29</v>
       </c>
@@ -24597,7 +24608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="15.75" hidden="1">
+    <row r="287" spans="1:8" hidden="1">
       <c r="A287" t="s">
         <v>29</v>
       </c>
@@ -24608,7 +24619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="15.75" hidden="1">
+    <row r="288" spans="1:8" hidden="1">
       <c r="A288" t="s">
         <v>29</v>
       </c>
@@ -24619,7 +24630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15.75" hidden="1">
+    <row r="289" spans="1:8" hidden="1">
       <c r="A289" t="s">
         <v>29</v>
       </c>
@@ -24630,7 +24641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="15.75" hidden="1">
+    <row r="290" spans="1:8" hidden="1">
       <c r="A290" t="s">
         <v>31</v>
       </c>
@@ -24652,7 +24663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="15.75" hidden="1">
+    <row r="292" spans="1:8" hidden="1">
       <c r="A292" t="s">
         <v>31</v>
       </c>
@@ -24663,7 +24674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="15.75" hidden="1">
+    <row r="293" spans="1:8" hidden="1">
       <c r="A293" t="s">
         <v>31</v>
       </c>
@@ -24674,7 +24685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="15.75" hidden="1">
+    <row r="294" spans="1:8" hidden="1">
       <c r="A294" t="s">
         <v>31</v>
       </c>
@@ -24685,7 +24696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="15.75" hidden="1">
+    <row r="295" spans="1:8" hidden="1">
       <c r="A295" t="s">
         <v>31</v>
       </c>
@@ -24696,7 +24707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="15.75" hidden="1">
+    <row r="296" spans="1:8" hidden="1">
       <c r="A296" t="s">
         <v>31</v>
       </c>
@@ -24707,7 +24718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="15.75" hidden="1">
+    <row r="297" spans="1:8" hidden="1">
       <c r="A297" t="s">
         <v>31</v>
       </c>
@@ -24718,7 +24729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="15.75" hidden="1">
+    <row r="298" spans="1:8" hidden="1">
       <c r="A298" t="s">
         <v>31</v>
       </c>
@@ -24729,7 +24740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="15.75" hidden="1">
+    <row r="299" spans="1:8" hidden="1">
       <c r="A299" t="s">
         <v>31</v>
       </c>
@@ -24740,7 +24751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="15.75" hidden="1">
+    <row r="300" spans="1:8" hidden="1">
       <c r="A300" t="s">
         <v>31</v>
       </c>
@@ -24751,7 +24762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="15.75" hidden="1">
+    <row r="301" spans="1:8" hidden="1">
       <c r="A301" t="s">
         <v>31</v>
       </c>
@@ -24762,7 +24773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="15.75" hidden="1">
+    <row r="302" spans="1:8" hidden="1">
       <c r="A302" t="s">
         <v>31</v>
       </c>
@@ -24773,7 +24784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="15.75" hidden="1">
+    <row r="303" spans="1:8" hidden="1">
       <c r="A303" t="s">
         <v>31</v>
       </c>
@@ -24784,7 +24795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="15.75" hidden="1">
+    <row r="304" spans="1:8" hidden="1">
       <c r="A304" t="s">
         <v>31</v>
       </c>
@@ -24795,7 +24806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="15.75" hidden="1">
+    <row r="305" spans="1:8" hidden="1">
       <c r="A305" t="s">
         <v>31</v>
       </c>
@@ -24806,7 +24817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="15.75" hidden="1">
+    <row r="306" spans="1:8" hidden="1">
       <c r="A306" t="s">
         <v>31</v>
       </c>
@@ -24817,7 +24828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="15.75" hidden="1">
+    <row r="307" spans="1:8" hidden="1">
       <c r="A307" t="s">
         <v>31</v>
       </c>
@@ -24828,7 +24839,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="15.75" hidden="1">
+    <row r="308" spans="1:8" hidden="1">
       <c r="A308" t="s">
         <v>32</v>
       </c>
@@ -24850,7 +24861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="15.75" hidden="1">
+    <row r="310" spans="1:8" hidden="1">
       <c r="A310" t="s">
         <v>32</v>
       </c>
@@ -24861,7 +24872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="15.75" hidden="1">
+    <row r="311" spans="1:8" hidden="1">
       <c r="A311" t="s">
         <v>32</v>
       </c>
@@ -24872,7 +24883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="15.75" hidden="1">
+    <row r="312" spans="1:8" hidden="1">
       <c r="A312" t="s">
         <v>32</v>
       </c>
@@ -24883,7 +24894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="15.75" hidden="1">
+    <row r="313" spans="1:8" hidden="1">
       <c r="A313" t="s">
         <v>32</v>
       </c>
@@ -24894,7 +24905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="15.75" hidden="1">
+    <row r="314" spans="1:8" hidden="1">
       <c r="A314" t="s">
         <v>32</v>
       </c>
@@ -24905,7 +24916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="15.75" hidden="1">
+    <row r="315" spans="1:8" hidden="1">
       <c r="A315" t="s">
         <v>32</v>
       </c>
@@ -24916,7 +24927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="15.75" hidden="1">
+    <row r="316" spans="1:8" hidden="1">
       <c r="A316" t="s">
         <v>32</v>
       </c>
@@ -24927,7 +24938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="15.75" hidden="1">
+    <row r="317" spans="1:8" hidden="1">
       <c r="A317" t="s">
         <v>32</v>
       </c>
@@ -24938,7 +24949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="15.75" hidden="1">
+    <row r="318" spans="1:8" hidden="1">
       <c r="A318" t="s">
         <v>32</v>
       </c>
@@ -24949,7 +24960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="15.75" hidden="1">
+    <row r="319" spans="1:8" hidden="1">
       <c r="A319" t="s">
         <v>32</v>
       </c>
@@ -24960,7 +24971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="15.75" hidden="1">
+    <row r="320" spans="1:8" hidden="1">
       <c r="A320" t="s">
         <v>32</v>
       </c>
@@ -24971,7 +24982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="15.75" hidden="1">
+    <row r="321" spans="1:8" hidden="1">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -24982,7 +24993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="15.75" hidden="1">
+    <row r="322" spans="1:8" hidden="1">
       <c r="A322" t="s">
         <v>32</v>
       </c>
@@ -24993,7 +25004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="15.75" hidden="1">
+    <row r="323" spans="1:8" hidden="1">
       <c r="A323" t="s">
         <v>32</v>
       </c>
@@ -25004,7 +25015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="15.75" hidden="1">
+    <row r="324" spans="1:8" hidden="1">
       <c r="A324" t="s">
         <v>32</v>
       </c>
@@ -25015,7 +25026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15.75" hidden="1">
+    <row r="325" spans="1:8" hidden="1">
       <c r="A325" t="s">
         <v>32</v>
       </c>
@@ -25026,7 +25037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15.75" hidden="1">
+    <row r="326" spans="1:8" hidden="1">
       <c r="A326" t="s">
         <v>33</v>
       </c>
@@ -25048,7 +25059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="15.75" hidden="1">
+    <row r="328" spans="1:8" hidden="1">
       <c r="A328" t="s">
         <v>33</v>
       </c>
@@ -25059,7 +25070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="15.75" hidden="1">
+    <row r="329" spans="1:8" hidden="1">
       <c r="A329" t="s">
         <v>33</v>
       </c>
@@ -25070,7 +25081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="15.75" hidden="1">
+    <row r="330" spans="1:8" hidden="1">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -25081,7 +25092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="15.75" hidden="1">
+    <row r="331" spans="1:8" hidden="1">
       <c r="A331" t="s">
         <v>33</v>
       </c>
@@ -25092,7 +25103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="15.75" hidden="1">
+    <row r="332" spans="1:8" hidden="1">
       <c r="A332" t="s">
         <v>33</v>
       </c>
@@ -25103,7 +25114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="15.75" hidden="1">
+    <row r="333" spans="1:8" hidden="1">
       <c r="A333" t="s">
         <v>33</v>
       </c>
@@ -25114,7 +25125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="15.75" hidden="1">
+    <row r="334" spans="1:8" hidden="1">
       <c r="A334" t="s">
         <v>33</v>
       </c>
@@ -25125,7 +25136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="15.75" hidden="1">
+    <row r="335" spans="1:8" hidden="1">
       <c r="A335" t="s">
         <v>33</v>
       </c>
@@ -25136,7 +25147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="15.75" hidden="1">
+    <row r="336" spans="1:8" hidden="1">
       <c r="A336" t="s">
         <v>33</v>
       </c>
@@ -25147,7 +25158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="15.75" hidden="1">
+    <row r="337" spans="1:8" hidden="1">
       <c r="A337" t="s">
         <v>33</v>
       </c>
@@ -25158,7 +25169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="15.75" hidden="1">
+    <row r="338" spans="1:8" hidden="1">
       <c r="A338" t="s">
         <v>33</v>
       </c>
@@ -25169,7 +25180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="15.75" hidden="1">
+    <row r="339" spans="1:8" hidden="1">
       <c r="A339" t="s">
         <v>33</v>
       </c>
@@ -25180,7 +25191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="15.75" hidden="1">
+    <row r="340" spans="1:8" hidden="1">
       <c r="A340" t="s">
         <v>33</v>
       </c>
@@ -25191,7 +25202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="15.75" hidden="1">
+    <row r="341" spans="1:8" hidden="1">
       <c r="A341" t="s">
         <v>33</v>
       </c>
@@ -25202,7 +25213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="15.75" hidden="1">
+    <row r="342" spans="1:8" hidden="1">
       <c r="A342" t="s">
         <v>33</v>
       </c>
@@ -25213,7 +25224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="15.75" hidden="1">
+    <row r="343" spans="1:8" hidden="1">
       <c r="A343" t="s">
         <v>33</v>
       </c>
@@ -25224,7 +25235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="15.75" hidden="1">
+    <row r="344" spans="1:8" hidden="1">
       <c r="A344" t="s">
         <v>35</v>
       </c>
@@ -25246,7 +25257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="15.75" hidden="1">
+    <row r="346" spans="1:8" hidden="1">
       <c r="A346" t="s">
         <v>35</v>
       </c>
@@ -25257,7 +25268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="15.75" hidden="1">
+    <row r="347" spans="1:8" hidden="1">
       <c r="A347" t="s">
         <v>35</v>
       </c>
@@ -25268,7 +25279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="15.75" hidden="1">
+    <row r="348" spans="1:8" hidden="1">
       <c r="A348" t="s">
         <v>35</v>
       </c>
@@ -25279,7 +25290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="15.75" hidden="1">
+    <row r="349" spans="1:8" hidden="1">
       <c r="A349" t="s">
         <v>35</v>
       </c>
@@ -25290,7 +25301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="15.75" hidden="1">
+    <row r="350" spans="1:8" hidden="1">
       <c r="A350" t="s">
         <v>35</v>
       </c>
@@ -25301,7 +25312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="15.75" hidden="1">
+    <row r="351" spans="1:8" hidden="1">
       <c r="A351" t="s">
         <v>35</v>
       </c>
@@ -25312,7 +25323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="15.75" hidden="1">
+    <row r="352" spans="1:8" hidden="1">
       <c r="A352" t="s">
         <v>35</v>
       </c>
@@ -25323,7 +25334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="15.75" hidden="1">
+    <row r="353" spans="1:8" hidden="1">
       <c r="A353" t="s">
         <v>35</v>
       </c>
@@ -25334,7 +25345,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="15.75" hidden="1">
+    <row r="354" spans="1:8" hidden="1">
       <c r="A354" t="s">
         <v>35</v>
       </c>
@@ -25345,7 +25356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="15.75" hidden="1">
+    <row r="355" spans="1:8" hidden="1">
       <c r="A355" t="s">
         <v>35</v>
       </c>
@@ -25356,7 +25367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="15.75" hidden="1">
+    <row r="356" spans="1:8" hidden="1">
       <c r="A356" t="s">
         <v>35</v>
       </c>
@@ -25367,7 +25378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="15.75" hidden="1">
+    <row r="357" spans="1:8" hidden="1">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -25378,7 +25389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="15.75" hidden="1">
+    <row r="358" spans="1:8" hidden="1">
       <c r="A358" t="s">
         <v>35</v>
       </c>
@@ -25389,7 +25400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="15.75" hidden="1">
+    <row r="359" spans="1:8" hidden="1">
       <c r="A359" t="s">
         <v>35</v>
       </c>
@@ -25400,7 +25411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="15.75" hidden="1">
+    <row r="360" spans="1:8" hidden="1">
       <c r="A360" t="s">
         <v>35</v>
       </c>
@@ -25411,7 +25422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="15.75" hidden="1">
+    <row r="361" spans="1:8" hidden="1">
       <c r="A361" t="s">
         <v>35</v>
       </c>
@@ -25422,7 +25433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="15.75" hidden="1">
+    <row r="362" spans="1:8" hidden="1">
       <c r="A362" t="s">
         <v>36</v>
       </c>
@@ -25444,7 +25455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="15.75" hidden="1">
+    <row r="364" spans="1:8" hidden="1">
       <c r="A364" t="s">
         <v>36</v>
       </c>
@@ -25455,7 +25466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="15.75" hidden="1">
+    <row r="365" spans="1:8" hidden="1">
       <c r="A365" t="s">
         <v>36</v>
       </c>
@@ -25466,7 +25477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="15.75" hidden="1">
+    <row r="366" spans="1:8" hidden="1">
       <c r="A366" t="s">
         <v>36</v>
       </c>
@@ -25477,7 +25488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="15.75" hidden="1">
+    <row r="367" spans="1:8" hidden="1">
       <c r="A367" t="s">
         <v>36</v>
       </c>
@@ -25488,7 +25499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" hidden="1">
+    <row r="368" spans="1:8" hidden="1">
       <c r="A368" t="s">
         <v>36</v>
       </c>
@@ -25499,7 +25510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15.75" hidden="1">
+    <row r="369" spans="1:8" hidden="1">
       <c r="A369" t="s">
         <v>36</v>
       </c>
@@ -25510,7 +25521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="15.75" hidden="1">
+    <row r="370" spans="1:8" hidden="1">
       <c r="A370" t="s">
         <v>36</v>
       </c>
@@ -25521,7 +25532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="15.75" hidden="1">
+    <row r="371" spans="1:8" hidden="1">
       <c r="A371" t="s">
         <v>36</v>
       </c>
@@ -25532,7 +25543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="15.75" hidden="1">
+    <row r="372" spans="1:8" hidden="1">
       <c r="A372" t="s">
         <v>36</v>
       </c>
@@ -25543,7 +25554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="15.75" hidden="1">
+    <row r="373" spans="1:8" hidden="1">
       <c r="A373" t="s">
         <v>36</v>
       </c>
@@ -25554,7 +25565,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="15.75" hidden="1">
+    <row r="374" spans="1:8" hidden="1">
       <c r="A374" t="s">
         <v>36</v>
       </c>
@@ -25565,7 +25576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="15.75" hidden="1">
+    <row r="375" spans="1:8" hidden="1">
       <c r="A375" t="s">
         <v>36</v>
       </c>
@@ -25576,7 +25587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="15.75" hidden="1">
+    <row r="376" spans="1:8" hidden="1">
       <c r="A376" t="s">
         <v>36</v>
       </c>
@@ -25587,7 +25598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="15.75" hidden="1">
+    <row r="377" spans="1:8" hidden="1">
       <c r="A377" t="s">
         <v>36</v>
       </c>
@@ -25598,7 +25609,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="15.75" hidden="1">
+    <row r="378" spans="1:8" hidden="1">
       <c r="A378" t="s">
         <v>36</v>
       </c>
@@ -25609,7 +25620,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="15.75" hidden="1">
+    <row r="379" spans="1:8" hidden="1">
       <c r="A379" t="s">
         <v>36</v>
       </c>
@@ -25620,7 +25631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="15.75" hidden="1">
+    <row r="380" spans="1:8" hidden="1">
       <c r="A380" t="s">
         <v>37</v>
       </c>
@@ -25642,7 +25653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="15.75" hidden="1">
+    <row r="382" spans="1:8" hidden="1">
       <c r="A382" t="s">
         <v>37</v>
       </c>
@@ -25653,7 +25664,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="15.75" hidden="1">
+    <row r="383" spans="1:8" hidden="1">
       <c r="A383" t="s">
         <v>37</v>
       </c>
@@ -25664,7 +25675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="15.75" hidden="1">
+    <row r="384" spans="1:8" hidden="1">
       <c r="A384" t="s">
         <v>37</v>
       </c>
@@ -25675,7 +25686,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="15.75" hidden="1">
+    <row r="385" spans="1:8" hidden="1">
       <c r="A385" t="s">
         <v>37</v>
       </c>
@@ -25686,7 +25697,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="15.75" hidden="1">
+    <row r="386" spans="1:8" hidden="1">
       <c r="A386" t="s">
         <v>37</v>
       </c>
@@ -25697,7 +25708,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="15.75" hidden="1">
+    <row r="387" spans="1:8" hidden="1">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -25708,7 +25719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15.75" hidden="1">
+    <row r="388" spans="1:8" hidden="1">
       <c r="A388" t="s">
         <v>37</v>
       </c>
@@ -25719,7 +25730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15.75" hidden="1">
+    <row r="389" spans="1:8" hidden="1">
       <c r="A389" t="s">
         <v>37</v>
       </c>
@@ -25730,7 +25741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="15.75" hidden="1">
+    <row r="390" spans="1:8" hidden="1">
       <c r="A390" t="s">
         <v>37</v>
       </c>
@@ -25741,7 +25752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="15.75" hidden="1">
+    <row r="391" spans="1:8" hidden="1">
       <c r="A391" t="s">
         <v>37</v>
       </c>
@@ -25752,7 +25763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="15.75" hidden="1">
+    <row r="392" spans="1:8" hidden="1">
       <c r="A392" t="s">
         <v>37</v>
       </c>
@@ -25763,7 +25774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="15.75" hidden="1">
+    <row r="393" spans="1:8" hidden="1">
       <c r="A393" t="s">
         <v>37</v>
       </c>
@@ -25774,7 +25785,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="15.75" hidden="1">
+    <row r="394" spans="1:8" hidden="1">
       <c r="A394" t="s">
         <v>37</v>
       </c>
@@ -25785,7 +25796,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="15.75" hidden="1">
+    <row r="395" spans="1:8" hidden="1">
       <c r="A395" t="s">
         <v>37</v>
       </c>
@@ -25796,7 +25807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="15.75" hidden="1">
+    <row r="396" spans="1:8" hidden="1">
       <c r="A396" t="s">
         <v>37</v>
       </c>
@@ -25807,7 +25818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="15.75" hidden="1">
+    <row r="397" spans="1:8" hidden="1">
       <c r="A397" t="s">
         <v>37</v>
       </c>
@@ -25818,7 +25829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="15.75" hidden="1">
+    <row r="398" spans="1:8" hidden="1">
       <c r="A398" t="s">
         <v>39</v>
       </c>
@@ -25840,7 +25851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="15.75" hidden="1">
+    <row r="400" spans="1:8" hidden="1">
       <c r="A400" t="s">
         <v>39</v>
       </c>
@@ -25851,7 +25862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="15.75" hidden="1">
+    <row r="401" spans="1:8" hidden="1">
       <c r="A401" t="s">
         <v>39</v>
       </c>
@@ -25862,7 +25873,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="15.75" hidden="1">
+    <row r="402" spans="1:8" hidden="1">
       <c r="A402" t="s">
         <v>39</v>
       </c>
@@ -25873,7 +25884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="15.75" hidden="1">
+    <row r="403" spans="1:8" hidden="1">
       <c r="A403" t="s">
         <v>39</v>
       </c>
@@ -25884,7 +25895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="15.75" hidden="1">
+    <row r="404" spans="1:8" hidden="1">
       <c r="A404" t="s">
         <v>39</v>
       </c>
@@ -25895,7 +25906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="15.75" hidden="1">
+    <row r="405" spans="1:8" hidden="1">
       <c r="A405" t="s">
         <v>39</v>
       </c>
@@ -25906,7 +25917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="15.75" hidden="1">
+    <row r="406" spans="1:8" hidden="1">
       <c r="A406" t="s">
         <v>39</v>
       </c>
@@ -25917,7 +25928,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="15.75" hidden="1">
+    <row r="407" spans="1:8" hidden="1">
       <c r="A407" t="s">
         <v>39</v>
       </c>
@@ -25928,7 +25939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="15.75" hidden="1">
+    <row r="408" spans="1:8" hidden="1">
       <c r="A408" t="s">
         <v>39</v>
       </c>
@@ -25939,7 +25950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="15.75" hidden="1">
+    <row r="409" spans="1:8" hidden="1">
       <c r="A409" t="s">
         <v>39</v>
       </c>
@@ -25950,7 +25961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="15.75" hidden="1">
+    <row r="410" spans="1:8" hidden="1">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -25961,7 +25972,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="15.75" hidden="1">
+    <row r="411" spans="1:8" hidden="1">
       <c r="A411" t="s">
         <v>39</v>
       </c>
@@ -25972,7 +25983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15.75" hidden="1">
+    <row r="412" spans="1:8" hidden="1">
       <c r="A412" t="s">
         <v>39</v>
       </c>
@@ -25983,7 +25994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15.75" hidden="1">
+    <row r="413" spans="1:8" hidden="1">
       <c r="A413" t="s">
         <v>39</v>
       </c>
@@ -25994,7 +26005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="15.75" hidden="1">
+    <row r="414" spans="1:8" hidden="1">
       <c r="A414" t="s">
         <v>39</v>
       </c>
@@ -26005,7 +26016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="15.75" hidden="1">
+    <row r="415" spans="1:8" hidden="1">
       <c r="A415" t="s">
         <v>39</v>
       </c>
@@ -26016,7 +26027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="15.75" hidden="1">
+    <row r="416" spans="1:8" hidden="1">
       <c r="A416" t="s">
         <v>40</v>
       </c>
@@ -26038,7 +26049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="15.75" hidden="1">
+    <row r="418" spans="1:8" hidden="1">
       <c r="A418" t="s">
         <v>40</v>
       </c>
@@ -26049,7 +26060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="15.75" hidden="1">
+    <row r="419" spans="1:8" hidden="1">
       <c r="A419" t="s">
         <v>40</v>
       </c>
@@ -26060,7 +26071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="15.75" hidden="1">
+    <row r="420" spans="1:8" hidden="1">
       <c r="A420" t="s">
         <v>40</v>
       </c>
@@ -26071,7 +26082,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15.75" hidden="1">
+    <row r="421" spans="1:8" hidden="1">
       <c r="A421" t="s">
         <v>40</v>
       </c>
@@ -26082,7 +26093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="15.75" hidden="1">
+    <row r="422" spans="1:8" hidden="1">
       <c r="A422" t="s">
         <v>40</v>
       </c>
@@ -26093,7 +26104,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="15.75" hidden="1">
+    <row r="423" spans="1:8" hidden="1">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -26104,7 +26115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="15.75" hidden="1">
+    <row r="424" spans="1:8" hidden="1">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -26115,7 +26126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="15.75" hidden="1">
+    <row r="425" spans="1:8" hidden="1">
       <c r="A425" t="s">
         <v>40</v>
       </c>
@@ -26126,7 +26137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="15.75" hidden="1">
+    <row r="426" spans="1:8" hidden="1">
       <c r="A426" t="s">
         <v>40</v>
       </c>
@@ -26137,7 +26148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="15.75" hidden="1">
+    <row r="427" spans="1:8" hidden="1">
       <c r="A427" t="s">
         <v>40</v>
       </c>
@@ -26148,7 +26159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="15.75" hidden="1">
+    <row r="428" spans="1:8" hidden="1">
       <c r="A428" t="s">
         <v>40</v>
       </c>
@@ -26159,7 +26170,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="15.75" hidden="1">
+    <row r="429" spans="1:8" hidden="1">
       <c r="A429" t="s">
         <v>40</v>
       </c>
@@ -26170,7 +26181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="15.75" hidden="1">
+    <row r="430" spans="1:8" hidden="1">
       <c r="A430" t="s">
         <v>40</v>
       </c>
@@ -26181,7 +26192,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="15.75" hidden="1">
+    <row r="431" spans="1:8" hidden="1">
       <c r="A431" t="s">
         <v>40</v>
       </c>
@@ -26192,7 +26203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="15.75" hidden="1">
+    <row r="432" spans="1:8" hidden="1">
       <c r="A432" t="s">
         <v>40</v>
       </c>
@@ -26203,7 +26214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="15.75" hidden="1">
+    <row r="433" spans="1:8" hidden="1">
       <c r="A433" t="s">
         <v>40</v>
       </c>
@@ -26214,7 +26225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15.75" hidden="1">
+    <row r="434" spans="1:8" hidden="1">
       <c r="A434" t="s">
         <v>41</v>
       </c>
@@ -26236,7 +26247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15.75" hidden="1">
+    <row r="436" spans="1:8" hidden="1">
       <c r="A436" t="s">
         <v>41</v>
       </c>
@@ -26247,7 +26258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15.75" hidden="1">
+    <row r="437" spans="1:8" hidden="1">
       <c r="A437" t="s">
         <v>41</v>
       </c>
@@ -26258,7 +26269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="15.75" hidden="1">
+    <row r="438" spans="1:8" hidden="1">
       <c r="A438" t="s">
         <v>41</v>
       </c>
@@ -26269,7 +26280,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="15.75" hidden="1">
+    <row r="439" spans="1:8" hidden="1">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -26280,7 +26291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="15.75" hidden="1">
+    <row r="440" spans="1:8" hidden="1">
       <c r="A440" t="s">
         <v>41</v>
       </c>
@@ -26291,7 +26302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="15.75" hidden="1">
+    <row r="441" spans="1:8" hidden="1">
       <c r="A441" t="s">
         <v>41</v>
       </c>
@@ -26302,7 +26313,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="15.75" hidden="1">
+    <row r="442" spans="1:8" hidden="1">
       <c r="A442" t="s">
         <v>41</v>
       </c>
@@ -26313,7 +26324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="15.75" hidden="1">
+    <row r="443" spans="1:8" hidden="1">
       <c r="A443" t="s">
         <v>41</v>
       </c>
@@ -26324,7 +26335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="15.75" hidden="1">
+    <row r="444" spans="1:8" hidden="1">
       <c r="A444" t="s">
         <v>41</v>
       </c>
@@ -26335,7 +26346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="15.75" hidden="1">
+    <row r="445" spans="1:8" hidden="1">
       <c r="A445" t="s">
         <v>41</v>
       </c>
@@ -26346,7 +26357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="15.75" hidden="1">
+    <row r="446" spans="1:8" hidden="1">
       <c r="A446" t="s">
         <v>41</v>
       </c>
@@ -26357,7 +26368,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="15.75" hidden="1">
+    <row r="447" spans="1:8" hidden="1">
       <c r="A447" t="s">
         <v>41</v>
       </c>
@@ -26368,7 +26379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="15.75" hidden="1">
+    <row r="448" spans="1:8" hidden="1">
       <c r="A448" t="s">
         <v>41</v>
       </c>
@@ -26379,7 +26390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="15.75" hidden="1">
+    <row r="449" spans="1:8" hidden="1">
       <c r="A449" t="s">
         <v>41</v>
       </c>
@@ -26390,7 +26401,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="15.75" hidden="1">
+    <row r="450" spans="1:8" hidden="1">
       <c r="A450" t="s">
         <v>41</v>
       </c>
@@ -26401,7 +26412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="15.75" hidden="1">
+    <row r="451" spans="1:8" hidden="1">
       <c r="A451" t="s">
         <v>41</v>
       </c>
@@ -26412,7 +26423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="15.75" hidden="1">
+    <row r="452" spans="1:8" hidden="1">
       <c r="A452" t="s">
         <v>43</v>
       </c>
@@ -26434,7 +26445,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="15.75" hidden="1">
+    <row r="454" spans="1:8" hidden="1">
       <c r="A454" t="s">
         <v>43</v>
       </c>
@@ -26445,7 +26456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="15.75" hidden="1">
+    <row r="455" spans="1:8" hidden="1">
       <c r="A455" t="s">
         <v>43</v>
       </c>
@@ -26456,7 +26467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="15.75" hidden="1">
+    <row r="456" spans="1:8" hidden="1">
       <c r="A456" t="s">
         <v>43</v>
       </c>
@@ -26467,7 +26478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="15.75" hidden="1">
+    <row r="457" spans="1:8" hidden="1">
       <c r="A457" t="s">
         <v>43</v>
       </c>
@@ -26478,7 +26489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="15.75" hidden="1">
+    <row r="458" spans="1:8" hidden="1">
       <c r="A458" t="s">
         <v>43</v>
       </c>
@@ -26489,7 +26500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="15.75" hidden="1">
+    <row r="459" spans="1:8" hidden="1">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -26500,7 +26511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="15.75" hidden="1">
+    <row r="460" spans="1:8" hidden="1">
       <c r="A460" t="s">
         <v>43</v>
       </c>
@@ -26511,7 +26522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="15.75" hidden="1">
+    <row r="461" spans="1:8" hidden="1">
       <c r="A461" t="s">
         <v>43</v>
       </c>
@@ -26522,7 +26533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="15.75" hidden="1">
+    <row r="462" spans="1:8" hidden="1">
       <c r="A462" t="s">
         <v>43</v>
       </c>
@@ -26533,7 +26544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="15.75" hidden="1">
+    <row r="463" spans="1:8" hidden="1">
       <c r="A463" t="s">
         <v>43</v>
       </c>
@@ -26544,7 +26555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="15.75" hidden="1">
+    <row r="464" spans="1:8" hidden="1">
       <c r="A464" t="s">
         <v>43</v>
       </c>
@@ -26555,7 +26566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="15.75" hidden="1">
+    <row r="465" spans="1:8" hidden="1">
       <c r="A465" t="s">
         <v>43</v>
       </c>
@@ -26566,7 +26577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="15.75" hidden="1">
+    <row r="466" spans="1:8" hidden="1">
       <c r="A466" t="s">
         <v>43</v>
       </c>
@@ -26577,7 +26588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15.75" hidden="1">
+    <row r="467" spans="1:8" hidden="1">
       <c r="A467" t="s">
         <v>43</v>
       </c>
@@ -26588,7 +26599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15.75" hidden="1">
+    <row r="468" spans="1:8" hidden="1">
       <c r="A468" t="s">
         <v>43</v>
       </c>
@@ -26599,7 +26610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="15.75" hidden="1">
+    <row r="469" spans="1:8" hidden="1">
       <c r="A469" t="s">
         <v>43</v>
       </c>
@@ -26610,7 +26621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="15.75" hidden="1">
+    <row r="470" spans="1:8" hidden="1">
       <c r="A470" t="s">
         <v>44</v>
       </c>
@@ -26632,7 +26643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="15.75" hidden="1">
+    <row r="472" spans="1:8" hidden="1">
       <c r="A472" t="s">
         <v>44</v>
       </c>
@@ -26643,7 +26654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="15.75" hidden="1">
+    <row r="473" spans="1:8" hidden="1">
       <c r="A473" t="s">
         <v>44</v>
       </c>
@@ -26654,7 +26665,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="15.75" hidden="1">
+    <row r="474" spans="1:8" hidden="1">
       <c r="A474" t="s">
         <v>44</v>
       </c>
@@ -26665,7 +26676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="15.75" hidden="1">
+    <row r="475" spans="1:8" hidden="1">
       <c r="A475" t="s">
         <v>44</v>
       </c>
@@ -26676,7 +26687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="15.75" hidden="1">
+    <row r="476" spans="1:8" hidden="1">
       <c r="A476" t="s">
         <v>44</v>
       </c>
@@ -26687,7 +26698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="15.75" hidden="1">
+    <row r="477" spans="1:8" hidden="1">
       <c r="A477" t="s">
         <v>44</v>
       </c>
@@ -26698,7 +26709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="15.75" hidden="1">
+    <row r="478" spans="1:8" hidden="1">
       <c r="A478" t="s">
         <v>44</v>
       </c>
@@ -26709,7 +26720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="15.75" hidden="1">
+    <row r="479" spans="1:8" hidden="1">
       <c r="A479" t="s">
         <v>44</v>
       </c>
@@ -26720,7 +26731,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="15.75" hidden="1">
+    <row r="480" spans="1:8" hidden="1">
       <c r="A480" t="s">
         <v>44</v>
       </c>
@@ -26731,7 +26742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="15.75" hidden="1">
+    <row r="481" spans="1:8" hidden="1">
       <c r="A481" t="s">
         <v>44</v>
       </c>
@@ -26742,7 +26753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="15.75" hidden="1">
+    <row r="482" spans="1:8" hidden="1">
       <c r="A482" t="s">
         <v>44</v>
       </c>
@@ -26753,7 +26764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="15.75" hidden="1">
+    <row r="483" spans="1:8" hidden="1">
       <c r="A483" t="s">
         <v>44</v>
       </c>
@@ -26764,7 +26775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="15.75" hidden="1">
+    <row r="484" spans="1:8" hidden="1">
       <c r="A484" t="s">
         <v>44</v>
       </c>
@@ -26775,7 +26786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="15.75" hidden="1">
+    <row r="485" spans="1:8" hidden="1">
       <c r="A485" t="s">
         <v>44</v>
       </c>
@@ -26786,7 +26797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15.75" hidden="1">
+    <row r="486" spans="1:8" hidden="1">
       <c r="A486" t="s">
         <v>44</v>
       </c>
@@ -26797,7 +26808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15.75" hidden="1">
+    <row r="487" spans="1:8" hidden="1">
       <c r="A487" t="s">
         <v>44</v>
       </c>
@@ -26808,7 +26819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="15.75" hidden="1">
+    <row r="488" spans="1:8" hidden="1">
       <c r="A488" t="s">
         <v>45</v>
       </c>
@@ -26830,7 +26841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="15.75" hidden="1">
+    <row r="490" spans="1:8" hidden="1">
       <c r="A490" t="s">
         <v>45</v>
       </c>
@@ -26841,7 +26852,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="15.75" hidden="1">
+    <row r="491" spans="1:8" hidden="1">
       <c r="A491" t="s">
         <v>45</v>
       </c>
@@ -26852,7 +26863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="15.75" hidden="1">
+    <row r="492" spans="1:8" hidden="1">
       <c r="A492" t="s">
         <v>45</v>
       </c>
@@ -26863,7 +26874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="15.75" hidden="1">
+    <row r="493" spans="1:8" hidden="1">
       <c r="A493" t="s">
         <v>45</v>
       </c>
@@ -26874,7 +26885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="15.75" hidden="1">
+    <row r="494" spans="1:8" hidden="1">
       <c r="A494" t="s">
         <v>45</v>
       </c>
@@ -26885,7 +26896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="15.75" hidden="1">
+    <row r="495" spans="1:8" hidden="1">
       <c r="A495" t="s">
         <v>45</v>
       </c>
@@ -26896,7 +26907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="15.75" hidden="1">
+    <row r="496" spans="1:8" hidden="1">
       <c r="A496" t="s">
         <v>45</v>
       </c>
@@ -26907,7 +26918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="15.75" hidden="1">
+    <row r="497" spans="1:8" hidden="1">
       <c r="A497" t="s">
         <v>45</v>
       </c>
@@ -26918,7 +26929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="15.75" hidden="1">
+    <row r="498" spans="1:8" hidden="1">
       <c r="A498" t="s">
         <v>45</v>
       </c>
@@ -26929,7 +26940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="15.75" hidden="1">
+    <row r="499" spans="1:8" hidden="1">
       <c r="A499" t="s">
         <v>45</v>
       </c>
@@ -26940,7 +26951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="15.75" hidden="1">
+    <row r="500" spans="1:8" hidden="1">
       <c r="A500" t="s">
         <v>45</v>
       </c>
@@ -26951,7 +26962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="15.75" hidden="1">
+    <row r="501" spans="1:8" hidden="1">
       <c r="A501" t="s">
         <v>45</v>
       </c>
@@ -26962,7 +26973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15.75" hidden="1">
+    <row r="502" spans="1:8" hidden="1">
       <c r="A502" t="s">
         <v>45</v>
       </c>
@@ -26973,7 +26984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15.75" hidden="1">
+    <row r="503" spans="1:8" hidden="1">
       <c r="A503" t="s">
         <v>45</v>
       </c>
@@ -26984,7 +26995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="15.75" hidden="1">
+    <row r="504" spans="1:8" hidden="1">
       <c r="A504" t="s">
         <v>45</v>
       </c>
@@ -26995,7 +27006,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="15.75" hidden="1">
+    <row r="505" spans="1:8" hidden="1">
       <c r="A505" t="s">
         <v>45</v>
       </c>
@@ -27006,7 +27017,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="15.75" hidden="1">
+    <row r="506" spans="1:8" hidden="1">
       <c r="A506" t="s">
         <v>47</v>
       </c>
@@ -27028,7 +27039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="15.75" hidden="1">
+    <row r="508" spans="1:8" hidden="1">
       <c r="A508" t="s">
         <v>47</v>
       </c>
@@ -27039,7 +27050,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="15.75" hidden="1">
+    <row r="509" spans="1:8" hidden="1">
       <c r="A509" t="s">
         <v>47</v>
       </c>
@@ -27050,7 +27061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="15.75" hidden="1">
+    <row r="510" spans="1:8" hidden="1">
       <c r="A510" t="s">
         <v>47</v>
       </c>
@@ -27061,7 +27072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="15.75" hidden="1">
+    <row r="511" spans="1:8" hidden="1">
       <c r="A511" t="s">
         <v>47</v>
       </c>
@@ -27072,7 +27083,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="15.75" hidden="1">
+    <row r="512" spans="1:8" hidden="1">
       <c r="A512" t="s">
         <v>47</v>
       </c>
@@ -27083,7 +27094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="15.75" hidden="1">
+    <row r="513" spans="1:8" hidden="1">
       <c r="A513" t="s">
         <v>47</v>
       </c>
@@ -27094,7 +27105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="15.75" hidden="1">
+    <row r="514" spans="1:8" hidden="1">
       <c r="A514" t="s">
         <v>47</v>
       </c>
@@ -27105,7 +27116,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15.75" hidden="1">
+    <row r="515" spans="1:8" hidden="1">
       <c r="A515" t="s">
         <v>47</v>
       </c>
@@ -27116,7 +27127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="15.75" hidden="1">
+    <row r="516" spans="1:8" hidden="1">
       <c r="A516" t="s">
         <v>47</v>
       </c>
@@ -27127,7 +27138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="15.75" hidden="1">
+    <row r="517" spans="1:8" hidden="1">
       <c r="A517" t="s">
         <v>47</v>
       </c>
@@ -27138,7 +27149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="15.75" hidden="1">
+    <row r="518" spans="1:8" hidden="1">
       <c r="A518" t="s">
         <v>47</v>
       </c>
@@ -27149,7 +27160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="15.75" hidden="1">
+    <row r="519" spans="1:8" hidden="1">
       <c r="A519" t="s">
         <v>47</v>
       </c>
@@ -27160,7 +27171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="15.75" hidden="1">
+    <row r="520" spans="1:8" hidden="1">
       <c r="A520" t="s">
         <v>47</v>
       </c>
@@ -27171,7 +27182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="15.75" hidden="1">
+    <row r="521" spans="1:8" hidden="1">
       <c r="A521" t="s">
         <v>47</v>
       </c>
@@ -27182,7 +27193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="15.75" hidden="1">
+    <row r="522" spans="1:8" hidden="1">
       <c r="A522" t="s">
         <v>47</v>
       </c>
@@ -27193,7 +27204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="15.75" hidden="1">
+    <row r="523" spans="1:8" hidden="1">
       <c r="A523" t="s">
         <v>47</v>
       </c>
@@ -27204,7 +27215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15.75" hidden="1">
+    <row r="524" spans="1:8" hidden="1">
       <c r="A524" t="s">
         <v>48</v>
       </c>
@@ -27226,7 +27237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="15.75" hidden="1">
+    <row r="526" spans="1:8" hidden="1">
       <c r="A526" t="s">
         <v>48</v>
       </c>
@@ -27237,7 +27248,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="15.75" hidden="1">
+    <row r="527" spans="1:8" hidden="1">
       <c r="A527" t="s">
         <v>48</v>
       </c>
@@ -27248,7 +27259,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="15.75" hidden="1">
+    <row r="528" spans="1:8" hidden="1">
       <c r="A528" t="s">
         <v>48</v>
       </c>
@@ -27259,7 +27270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="15.75" hidden="1">
+    <row r="529" spans="1:8" hidden="1">
       <c r="A529" t="s">
         <v>48</v>
       </c>
@@ -27270,7 +27281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="15.75" hidden="1">
+    <row r="530" spans="1:8" hidden="1">
       <c r="A530" t="s">
         <v>48</v>
       </c>
@@ -27281,7 +27292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="15.75" hidden="1">
+    <row r="531" spans="1:8" hidden="1">
       <c r="A531" t="s">
         <v>48</v>
       </c>
@@ -27292,7 +27303,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="15.75" hidden="1">
+    <row r="532" spans="1:8" hidden="1">
       <c r="A532" t="s">
         <v>48</v>
       </c>
@@ -27303,7 +27314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="15.75" hidden="1">
+    <row r="533" spans="1:8" hidden="1">
       <c r="A533" t="s">
         <v>48</v>
       </c>
@@ -27314,7 +27325,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="15.75" hidden="1">
+    <row r="534" spans="1:8" hidden="1">
       <c r="A534" t="s">
         <v>48</v>
       </c>
@@ -27325,7 +27336,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="15.75" hidden="1">
+    <row r="535" spans="1:8" hidden="1">
       <c r="A535" t="s">
         <v>48</v>
       </c>
@@ -27336,7 +27347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="15.75" hidden="1">
+    <row r="536" spans="1:8" hidden="1">
       <c r="A536" t="s">
         <v>48</v>
       </c>
@@ -27347,7 +27358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="15.75" hidden="1">
+    <row r="537" spans="1:8" hidden="1">
       <c r="A537" t="s">
         <v>48</v>
       </c>
@@ -27358,7 +27369,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="15.75" hidden="1">
+    <row r="538" spans="1:8" hidden="1">
       <c r="A538" t="s">
         <v>48</v>
       </c>
@@ -27369,7 +27380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="15.75" hidden="1">
+    <row r="539" spans="1:8" hidden="1">
       <c r="A539" t="s">
         <v>48</v>
       </c>
@@ -27380,7 +27391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="15.75" hidden="1">
+    <row r="540" spans="1:8" hidden="1">
       <c r="A540" t="s">
         <v>48</v>
       </c>
@@ -27391,7 +27402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="15.75" hidden="1">
+    <row r="541" spans="1:8" hidden="1">
       <c r="A541" t="s">
         <v>48</v>
       </c>
@@ -27402,7 +27413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15.75" hidden="1">
+    <row r="542" spans="1:8" hidden="1">
       <c r="A542" t="s">
         <v>49</v>
       </c>
@@ -27424,7 +27435,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="15.75" hidden="1">
+    <row r="544" spans="1:8" hidden="1">
       <c r="A544" t="s">
         <v>49</v>
       </c>
@@ -27435,7 +27446,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="15.75" hidden="1">
+    <row r="545" spans="1:8" hidden="1">
       <c r="A545" t="s">
         <v>49</v>
       </c>
@@ -27446,7 +27457,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="15.75" hidden="1">
+    <row r="546" spans="1:8" hidden="1">
       <c r="A546" t="s">
         <v>49</v>
       </c>
@@ -27457,7 +27468,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="15.75" hidden="1">
+    <row r="547" spans="1:8" hidden="1">
       <c r="A547" t="s">
         <v>49</v>
       </c>
@@ -27468,7 +27479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="15.75" hidden="1">
+    <row r="548" spans="1:8" hidden="1">
       <c r="A548" t="s">
         <v>49</v>
       </c>
@@ -27479,7 +27490,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="15.75" hidden="1">
+    <row r="549" spans="1:8" hidden="1">
       <c r="A549" t="s">
         <v>49</v>
       </c>
@@ -27490,7 +27501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="15.75" hidden="1">
+    <row r="550" spans="1:8" hidden="1">
       <c r="A550" t="s">
         <v>49</v>
       </c>
@@ -27501,7 +27512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="15.75" hidden="1">
+    <row r="551" spans="1:8" hidden="1">
       <c r="A551" t="s">
         <v>49</v>
       </c>
@@ -27512,7 +27523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="15.75" hidden="1">
+    <row r="552" spans="1:8" hidden="1">
       <c r="A552" t="s">
         <v>49</v>
       </c>
@@ -27523,7 +27534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="15.75" hidden="1">
+    <row r="553" spans="1:8" hidden="1">
       <c r="A553" t="s">
         <v>49</v>
       </c>
@@ -27534,7 +27545,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="15.75" hidden="1">
+    <row r="554" spans="1:8" hidden="1">
       <c r="A554" t="s">
         <v>49</v>
       </c>
@@ -27545,7 +27556,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="15.75" hidden="1">
+    <row r="555" spans="1:8" hidden="1">
       <c r="A555" t="s">
         <v>49</v>
       </c>
@@ -27556,7 +27567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.75" hidden="1">
+    <row r="556" spans="1:8" hidden="1">
       <c r="A556" t="s">
         <v>49</v>
       </c>
@@ -27567,7 +27578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15.75" hidden="1">
+    <row r="557" spans="1:8" hidden="1">
       <c r="A557" t="s">
         <v>49</v>
       </c>
@@ -27578,7 +27589,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="15.75" hidden="1">
+    <row r="558" spans="1:8" hidden="1">
       <c r="A558" t="s">
         <v>49</v>
       </c>
@@ -27589,7 +27600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="15.75" hidden="1">
+    <row r="559" spans="1:8" hidden="1">
       <c r="A559" t="s">
         <v>49</v>
       </c>
@@ -27600,7 +27611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="15.75" hidden="1">
+    <row r="560" spans="1:8" hidden="1">
       <c r="A560" t="s">
         <v>51</v>
       </c>
@@ -27622,7 +27633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="15.75" hidden="1">
+    <row r="562" spans="1:8" hidden="1">
       <c r="A562" t="s">
         <v>51</v>
       </c>
@@ -27633,7 +27644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="15.75" hidden="1">
+    <row r="563" spans="1:8" hidden="1">
       <c r="A563" t="s">
         <v>51</v>
       </c>
@@ -27644,7 +27655,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="15.75" hidden="1">
+    <row r="564" spans="1:8" hidden="1">
       <c r="A564" t="s">
         <v>51</v>
       </c>
@@ -27655,7 +27666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="15.75" hidden="1">
+    <row r="565" spans="1:8" hidden="1">
       <c r="A565" t="s">
         <v>51</v>
       </c>
@@ -27666,7 +27677,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="15.75" hidden="1">
+    <row r="566" spans="1:8" hidden="1">
       <c r="A566" t="s">
         <v>51</v>
       </c>
@@ -27677,7 +27688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="15.75" hidden="1">
+    <row r="567" spans="1:8" hidden="1">
       <c r="A567" t="s">
         <v>51</v>
       </c>
@@ -27688,7 +27699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15.75" hidden="1">
+    <row r="568" spans="1:8" hidden="1">
       <c r="A568" t="s">
         <v>51</v>
       </c>
@@ -27699,7 +27710,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15.75" hidden="1">
+    <row r="569" spans="1:8" hidden="1">
       <c r="A569" t="s">
         <v>51</v>
       </c>
@@ -27710,7 +27721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="15.75" hidden="1">
+    <row r="570" spans="1:8" hidden="1">
       <c r="A570" t="s">
         <v>51</v>
       </c>
@@ -27721,7 +27732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="15.75" hidden="1">
+    <row r="571" spans="1:8" hidden="1">
       <c r="A571" t="s">
         <v>51</v>
       </c>
@@ -27732,7 +27743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="15.75" hidden="1">
+    <row r="572" spans="1:8" hidden="1">
       <c r="A572" t="s">
         <v>51</v>
       </c>
@@ -27743,7 +27754,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="15.75" hidden="1">
+    <row r="573" spans="1:8" hidden="1">
       <c r="A573" t="s">
         <v>51</v>
       </c>
@@ -27754,7 +27765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="15.75" hidden="1">
+    <row r="574" spans="1:8" hidden="1">
       <c r="A574" t="s">
         <v>51</v>
       </c>
@@ -27765,7 +27776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="15.75" hidden="1">
+    <row r="575" spans="1:8" hidden="1">
       <c r="A575" t="s">
         <v>51</v>
       </c>
@@ -27776,7 +27787,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="15.75" hidden="1">
+    <row r="576" spans="1:8" hidden="1">
       <c r="A576" t="s">
         <v>51</v>
       </c>
@@ -27787,7 +27798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="15.75" hidden="1">
+    <row r="577" spans="1:8" hidden="1">
       <c r="A577" t="s">
         <v>51</v>
       </c>
@@ -27798,7 +27809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="15.75" hidden="1">
+    <row r="578" spans="1:8" hidden="1">
       <c r="A578" t="s">
         <v>52</v>
       </c>
@@ -27820,7 +27831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="15.75" hidden="1">
+    <row r="580" spans="1:8" hidden="1">
       <c r="A580" t="s">
         <v>52</v>
       </c>
@@ -27831,7 +27842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="15.75" hidden="1">
+    <row r="581" spans="1:8" hidden="1">
       <c r="A581" t="s">
         <v>52</v>
       </c>
@@ -27842,7 +27853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="15.75" hidden="1">
+    <row r="582" spans="1:8" hidden="1">
       <c r="A582" t="s">
         <v>52</v>
       </c>
@@ -27853,7 +27864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="15.75" hidden="1">
+    <row r="583" spans="1:8" hidden="1">
       <c r="A583" t="s">
         <v>52</v>
       </c>
@@ -27864,7 +27875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="15.75" hidden="1">
+    <row r="584" spans="1:8" hidden="1">
       <c r="A584" t="s">
         <v>52</v>
       </c>
@@ -27875,7 +27886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="15.75" hidden="1">
+    <row r="585" spans="1:8" hidden="1">
       <c r="A585" t="s">
         <v>52</v>
       </c>
@@ -27886,7 +27897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="15.75" hidden="1">
+    <row r="586" spans="1:8" hidden="1">
       <c r="A586" t="s">
         <v>52</v>
       </c>
@@ -27897,7 +27908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="15.75" hidden="1">
+    <row r="587" spans="1:8" hidden="1">
       <c r="A587" t="s">
         <v>52</v>
       </c>
@@ -27908,7 +27919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="15.75" hidden="1">
+    <row r="588" spans="1:8" hidden="1">
       <c r="A588" t="s">
         <v>52</v>
       </c>
@@ -27919,7 +27930,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="15.75" hidden="1">
+    <row r="589" spans="1:8" hidden="1">
       <c r="A589" t="s">
         <v>52</v>
       </c>
@@ -27930,7 +27941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15.75" hidden="1">
+    <row r="590" spans="1:8" hidden="1">
       <c r="A590" t="s">
         <v>52</v>
       </c>
@@ -27941,7 +27952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15.75" hidden="1">
+    <row r="591" spans="1:8" hidden="1">
       <c r="A591" t="s">
         <v>52</v>
       </c>
@@ -27952,7 +27963,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="15.75" hidden="1">
+    <row r="592" spans="1:8" hidden="1">
       <c r="A592" t="s">
         <v>52</v>
       </c>
@@ -27963,7 +27974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="15.75" hidden="1">
+    <row r="593" spans="1:8" hidden="1">
       <c r="A593" t="s">
         <v>52</v>
       </c>
@@ -27974,7 +27985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="15.75" hidden="1">
+    <row r="594" spans="1:8" hidden="1">
       <c r="A594" t="s">
         <v>52</v>
       </c>
@@ -27985,7 +27996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="15.75" hidden="1">
+    <row r="595" spans="1:8" hidden="1">
       <c r="A595" t="s">
         <v>52</v>
       </c>
@@ -27996,7 +28007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="15.75" hidden="1">
+    <row r="596" spans="1:8" hidden="1">
       <c r="A596" t="s">
         <v>53</v>
       </c>
@@ -28018,7 +28029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="15.75" hidden="1">
+    <row r="598" spans="1:8" hidden="1">
       <c r="A598" t="s">
         <v>53</v>
       </c>
@@ -28029,7 +28040,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15.75" hidden="1">
+    <row r="599" spans="1:8" hidden="1">
       <c r="A599" t="s">
         <v>53</v>
       </c>
@@ -28040,7 +28051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="15.75" hidden="1">
+    <row r="600" spans="1:8" hidden="1">
       <c r="A600" t="s">
         <v>53</v>
       </c>
@@ -28051,7 +28062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="15.75" hidden="1">
+    <row r="601" spans="1:8" hidden="1">
       <c r="A601" t="s">
         <v>53</v>
       </c>
@@ -28062,7 +28073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="15.75" hidden="1">
+    <row r="602" spans="1:8" hidden="1">
       <c r="A602" t="s">
         <v>53</v>
       </c>
@@ -28073,7 +28084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="15.75" hidden="1">
+    <row r="603" spans="1:8" hidden="1">
       <c r="A603" t="s">
         <v>53</v>
       </c>
@@ -28084,7 +28095,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="15.75" hidden="1">
+    <row r="604" spans="1:8" hidden="1">
       <c r="A604" t="s">
         <v>53</v>
       </c>
@@ -28095,7 +28106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="15.75" hidden="1">
+    <row r="605" spans="1:8" hidden="1">
       <c r="A605" t="s">
         <v>53</v>
       </c>
@@ -28106,7 +28117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="15.75" hidden="1">
+    <row r="606" spans="1:8" hidden="1">
       <c r="A606" t="s">
         <v>53</v>
       </c>
@@ -28117,7 +28128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="15.75" hidden="1">
+    <row r="607" spans="1:8" hidden="1">
       <c r="A607" t="s">
         <v>53</v>
       </c>
@@ -28128,7 +28139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="15.75" hidden="1">
+    <row r="608" spans="1:8" hidden="1">
       <c r="A608" t="s">
         <v>53</v>
       </c>
@@ -28139,7 +28150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="15.75" hidden="1">
+    <row r="609" spans="1:8" hidden="1">
       <c r="A609" t="s">
         <v>53</v>
       </c>
@@ -28150,7 +28161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="15.75" hidden="1">
+    <row r="610" spans="1:8" hidden="1">
       <c r="A610" t="s">
         <v>53</v>
       </c>
@@ -28161,7 +28172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="15.75" hidden="1">
+    <row r="611" spans="1:8" hidden="1">
       <c r="A611" t="s">
         <v>53</v>
       </c>
@@ -28172,7 +28183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="15.75" hidden="1">
+    <row r="612" spans="1:8" hidden="1">
       <c r="A612" t="s">
         <v>53</v>
       </c>
@@ -28183,7 +28194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="15.75" hidden="1">
+    <row r="613" spans="1:8" hidden="1">
       <c r="A613" t="s">
         <v>53</v>
       </c>
@@ -28194,7 +28205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="15.75" hidden="1">
+    <row r="614" spans="1:8" hidden="1">
       <c r="A614" t="s">
         <v>55</v>
       </c>
@@ -28216,7 +28227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15.75" hidden="1">
+    <row r="616" spans="1:8" hidden="1">
       <c r="A616" t="s">
         <v>55</v>
       </c>
@@ -28227,7 +28238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="15.75" hidden="1">
+    <row r="617" spans="1:8" hidden="1">
       <c r="A617" t="s">
         <v>55</v>
       </c>
@@ -28238,7 +28249,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="15.75" hidden="1">
+    <row r="618" spans="1:8" hidden="1">
       <c r="A618" t="s">
         <v>55</v>
       </c>
@@ -28249,7 +28260,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="15.75" hidden="1">
+    <row r="619" spans="1:8" hidden="1">
       <c r="A619" t="s">
         <v>55</v>
       </c>
@@ -28260,7 +28271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="15.75" hidden="1">
+    <row r="620" spans="1:8" hidden="1">
       <c r="A620" t="s">
         <v>55</v>
       </c>
@@ -28271,7 +28282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="15.75" hidden="1">
+    <row r="621" spans="1:8" hidden="1">
       <c r="A621" t="s">
         <v>55</v>
       </c>
@@ -28282,7 +28293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="15.75" hidden="1">
+    <row r="622" spans="1:8" hidden="1">
       <c r="A622" t="s">
         <v>55</v>
       </c>
@@ -28293,7 +28304,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="15.75" hidden="1">
+    <row r="623" spans="1:8" hidden="1">
       <c r="A623" t="s">
         <v>55</v>
       </c>
@@ -28304,7 +28315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="15.75" hidden="1">
+    <row r="624" spans="1:8" hidden="1">
       <c r="A624" t="s">
         <v>55</v>
       </c>
@@ -28315,7 +28326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="15.75" hidden="1">
+    <row r="625" spans="1:8" hidden="1">
       <c r="A625" t="s">
         <v>55</v>
       </c>
@@ -28326,7 +28337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="15.75" hidden="1">
+    <row r="626" spans="1:8" hidden="1">
       <c r="A626" t="s">
         <v>55</v>
       </c>
@@ -28337,7 +28348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="15.75" hidden="1">
+    <row r="627" spans="1:8" hidden="1">
       <c r="A627" t="s">
         <v>55</v>
       </c>
@@ -28348,7 +28359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="15.75" hidden="1">
+    <row r="628" spans="1:8" hidden="1">
       <c r="A628" t="s">
         <v>55</v>
       </c>
@@ -28359,7 +28370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="15.75" hidden="1">
+    <row r="629" spans="1:8" hidden="1">
       <c r="A629" t="s">
         <v>55</v>
       </c>
@@ -28370,7 +28381,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="15.75" hidden="1">
+    <row r="630" spans="1:8" hidden="1">
       <c r="A630" t="s">
         <v>55</v>
       </c>
@@ -28381,7 +28392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="15.75" hidden="1">
+    <row r="631" spans="1:8" hidden="1">
       <c r="A631" t="s">
         <v>55</v>
       </c>
@@ -28392,7 +28403,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="15.75" hidden="1">
+    <row r="632" spans="1:8" hidden="1">
       <c r="A632" t="s">
         <v>56</v>
       </c>
@@ -28414,7 +28425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="15.75" hidden="1">
+    <row r="634" spans="1:8" hidden="1">
       <c r="A634" t="s">
         <v>56</v>
       </c>
@@ -28425,7 +28436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="15.75" hidden="1">
+    <row r="635" spans="1:8" hidden="1">
       <c r="A635" t="s">
         <v>56</v>
       </c>
@@ -28436,7 +28447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="15.75" hidden="1">
+    <row r="636" spans="1:8" hidden="1">
       <c r="A636" t="s">
         <v>56</v>
       </c>
@@ -28447,7 +28458,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="15.75" hidden="1">
+    <row r="637" spans="1:8" hidden="1">
       <c r="A637" t="s">
         <v>56</v>
       </c>
@@ -28458,7 +28469,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="15.75" hidden="1">
+    <row r="638" spans="1:8" hidden="1">
       <c r="A638" t="s">
         <v>56</v>
       </c>
@@ -28469,7 +28480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="15.75" hidden="1">
+    <row r="639" spans="1:8" hidden="1">
       <c r="A639" t="s">
         <v>56</v>
       </c>
@@ -28480,7 +28491,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="15.75" hidden="1">
+    <row r="640" spans="1:8" hidden="1">
       <c r="A640" t="s">
         <v>56</v>
       </c>
@@ -28491,7 +28502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="15.75" hidden="1">
+    <row r="641" spans="1:8" hidden="1">
       <c r="A641" t="s">
         <v>56</v>
       </c>
@@ -28502,7 +28513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="15.75" hidden="1">
+    <row r="642" spans="1:8" hidden="1">
       <c r="A642" t="s">
         <v>56</v>
       </c>
@@ -28513,7 +28524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="15.75" hidden="1">
+    <row r="643" spans="1:8" hidden="1">
       <c r="A643" t="s">
         <v>56</v>
       </c>
@@ -28524,7 +28535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="15.75" hidden="1">
+    <row r="644" spans="1:8" hidden="1">
       <c r="A644" t="s">
         <v>56</v>
       </c>
@@ -28535,7 +28546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="15.75" hidden="1">
+    <row r="645" spans="1:8" hidden="1">
       <c r="A645" t="s">
         <v>56</v>
       </c>
@@ -28546,7 +28557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="15.75" hidden="1">
+    <row r="646" spans="1:8" hidden="1">
       <c r="A646" t="s">
         <v>56</v>
       </c>
@@ -28557,7 +28568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="15.75" hidden="1">
+    <row r="647" spans="1:8" hidden="1">
       <c r="A647" t="s">
         <v>56</v>
       </c>
@@ -28568,7 +28579,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="15.75" hidden="1">
+    <row r="648" spans="1:8" hidden="1">
       <c r="A648" t="s">
         <v>56</v>
       </c>
@@ -28579,7 +28590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="15.75" hidden="1">
+    <row r="649" spans="1:8" hidden="1">
       <c r="A649" t="s">
         <v>56</v>
       </c>
@@ -28590,7 +28601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="15.75" hidden="1">
+    <row r="650" spans="1:8" hidden="1">
       <c r="A650" t="s">
         <v>57</v>
       </c>
@@ -28612,7 +28623,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15.75" hidden="1">
+    <row r="652" spans="1:8" hidden="1">
       <c r="A652" t="s">
         <v>57</v>
       </c>
@@ -28623,7 +28634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="15.75" hidden="1">
+    <row r="653" spans="1:8" hidden="1">
       <c r="A653" t="s">
         <v>57</v>
       </c>
@@ -28634,7 +28645,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="15.75" hidden="1">
+    <row r="654" spans="1:8" hidden="1">
       <c r="A654" t="s">
         <v>57</v>
       </c>
@@ -28645,7 +28656,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="15.75" hidden="1">
+    <row r="655" spans="1:8" hidden="1">
       <c r="A655" t="s">
         <v>57</v>
       </c>
@@ -28656,7 +28667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="15.75" hidden="1">
+    <row r="656" spans="1:8" hidden="1">
       <c r="A656" t="s">
         <v>57</v>
       </c>
@@ -28667,7 +28678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="15.75" hidden="1">
+    <row r="657" spans="1:8" hidden="1">
       <c r="A657" t="s">
         <v>57</v>
       </c>
@@ -28678,7 +28689,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="15.75" hidden="1">
+    <row r="658" spans="1:8" hidden="1">
       <c r="A658" t="s">
         <v>57</v>
       </c>
@@ -28689,7 +28700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="15.75" hidden="1">
+    <row r="659" spans="1:8" hidden="1">
       <c r="A659" t="s">
         <v>57</v>
       </c>
@@ -28700,7 +28711,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="15.75" hidden="1">
+    <row r="660" spans="1:8" hidden="1">
       <c r="A660" t="s">
         <v>57</v>
       </c>
@@ -28711,7 +28722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="15.75" hidden="1">
+    <row r="661" spans="1:8" hidden="1">
       <c r="A661" t="s">
         <v>57</v>
       </c>
@@ -28722,7 +28733,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="15.75" hidden="1">
+    <row r="662" spans="1:8" hidden="1">
       <c r="A662" t="s">
         <v>57</v>
       </c>
@@ -28733,7 +28744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="15.75" hidden="1">
+    <row r="663" spans="1:8" hidden="1">
       <c r="A663" t="s">
         <v>57</v>
       </c>
@@ -28744,7 +28755,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="15.75" hidden="1">
+    <row r="664" spans="1:8" hidden="1">
       <c r="A664" t="s">
         <v>57</v>
       </c>
@@ -28755,7 +28766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="15.75" hidden="1">
+    <row r="665" spans="1:8" hidden="1">
       <c r="A665" t="s">
         <v>57</v>
       </c>
@@ -28766,7 +28777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="15.75" hidden="1">
+    <row r="666" spans="1:8" hidden="1">
       <c r="A666" t="s">
         <v>57</v>
       </c>
@@ -28777,7 +28788,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="15.75" hidden="1">
+    <row r="667" spans="1:8" hidden="1">
       <c r="A667" t="s">
         <v>57</v>
       </c>
@@ -28788,7 +28799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="15.75" hidden="1">
+    <row r="668" spans="1:8" hidden="1">
       <c r="A668" t="s">
         <v>59</v>
       </c>
@@ -28810,7 +28821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="15.75" hidden="1">
+    <row r="670" spans="1:8" hidden="1">
       <c r="A670" t="s">
         <v>59</v>
       </c>
@@ -28821,7 +28832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="15.75" hidden="1">
+    <row r="671" spans="1:8" hidden="1">
       <c r="A671" t="s">
         <v>59</v>
       </c>
@@ -28832,7 +28843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="15.75" hidden="1">
+    <row r="672" spans="1:8" hidden="1">
       <c r="A672" t="s">
         <v>59</v>
       </c>
@@ -28843,7 +28854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="15.75" hidden="1">
+    <row r="673" spans="1:8" hidden="1">
       <c r="A673" t="s">
         <v>59</v>
       </c>
@@ -28854,7 +28865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="15.75" hidden="1">
+    <row r="674" spans="1:8" hidden="1">
       <c r="A674" t="s">
         <v>59</v>
       </c>
@@ -28865,7 +28876,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="15.75" hidden="1">
+    <row r="675" spans="1:8" hidden="1">
       <c r="A675" t="s">
         <v>59</v>
       </c>
@@ -28876,7 +28887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="15.75" hidden="1">
+    <row r="676" spans="1:8" hidden="1">
       <c r="A676" t="s">
         <v>59</v>
       </c>
@@ -28887,7 +28898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="15.75" hidden="1">
+    <row r="677" spans="1:8" hidden="1">
       <c r="A677" t="s">
         <v>59</v>
       </c>
@@ -28898,7 +28909,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="15.75" hidden="1">
+    <row r="678" spans="1:8" hidden="1">
       <c r="A678" t="s">
         <v>59</v>
       </c>
@@ -28909,7 +28920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="15.75" hidden="1">
+    <row r="679" spans="1:8" hidden="1">
       <c r="A679" t="s">
         <v>59</v>
       </c>
@@ -28920,7 +28931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="15.75" hidden="1">
+    <row r="680" spans="1:8" hidden="1">
       <c r="A680" t="s">
         <v>59</v>
       </c>
@@ -28931,7 +28942,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="15.75" hidden="1">
+    <row r="681" spans="1:8" hidden="1">
       <c r="A681" t="s">
         <v>59</v>
       </c>
@@ -28942,7 +28953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="15.75" hidden="1">
+    <row r="682" spans="1:8" hidden="1">
       <c r="A682" t="s">
         <v>59</v>
       </c>
@@ -28953,7 +28964,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="15.75" hidden="1">
+    <row r="683" spans="1:8" hidden="1">
       <c r="A683" t="s">
         <v>59</v>
       </c>
@@ -28964,7 +28975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="15.75" hidden="1">
+    <row r="684" spans="1:8" hidden="1">
       <c r="A684" t="s">
         <v>59</v>
       </c>
@@ -28975,7 +28986,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="15.75" hidden="1">
+    <row r="685" spans="1:8" hidden="1">
       <c r="A685" t="s">
         <v>59</v>
       </c>
@@ -28986,7 +28997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="15.75" hidden="1">
+    <row r="686" spans="1:8" hidden="1">
       <c r="A686" t="s">
         <v>60</v>
       </c>
@@ -29008,7 +29019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="15.75" hidden="1">
+    <row r="688" spans="1:8" hidden="1">
       <c r="A688" t="s">
         <v>60</v>
       </c>
@@ -29019,7 +29030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="15.75" hidden="1">
+    <row r="689" spans="1:8" hidden="1">
       <c r="A689" t="s">
         <v>60</v>
       </c>
@@ -29030,7 +29041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="15.75" hidden="1">
+    <row r="690" spans="1:8" hidden="1">
       <c r="A690" t="s">
         <v>60</v>
       </c>
@@ -29041,7 +29052,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="15.75" hidden="1">
+    <row r="691" spans="1:8" hidden="1">
       <c r="A691" t="s">
         <v>60</v>
       </c>
@@ -29052,7 +29063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="15.75" hidden="1">
+    <row r="692" spans="1:8" hidden="1">
       <c r="A692" t="s">
         <v>60</v>
       </c>
@@ -29063,7 +29074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="15.75" hidden="1">
+    <row r="693" spans="1:8" hidden="1">
       <c r="A693" t="s">
         <v>60</v>
       </c>
@@ -29074,7 +29085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="15.75" hidden="1">
+    <row r="694" spans="1:8" hidden="1">
       <c r="A694" t="s">
         <v>60</v>
       </c>
@@ -29085,7 +29096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="15.75" hidden="1">
+    <row r="695" spans="1:8" hidden="1">
       <c r="A695" t="s">
         <v>60</v>
       </c>
@@ -29096,7 +29107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="15.75" hidden="1">
+    <row r="696" spans="1:8" hidden="1">
       <c r="A696" t="s">
         <v>60</v>
       </c>
@@ -29107,7 +29118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="15.75" hidden="1">
+    <row r="697" spans="1:8" hidden="1">
       <c r="A697" t="s">
         <v>60</v>
       </c>
@@ -29118,7 +29129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="15.75" hidden="1">
+    <row r="698" spans="1:8" hidden="1">
       <c r="A698" t="s">
         <v>60</v>
       </c>
@@ -29129,7 +29140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="15.75" hidden="1">
+    <row r="699" spans="1:8" hidden="1">
       <c r="A699" t="s">
         <v>60</v>
       </c>
@@ -29140,7 +29151,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="15.75" hidden="1">
+    <row r="700" spans="1:8" hidden="1">
       <c r="A700" t="s">
         <v>60</v>
       </c>
@@ -29151,7 +29162,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="15.75" hidden="1">
+    <row r="701" spans="1:8" hidden="1">
       <c r="A701" t="s">
         <v>60</v>
       </c>
@@ -29162,7 +29173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="15.75" hidden="1">
+    <row r="702" spans="1:8" hidden="1">
       <c r="A702" t="s">
         <v>60</v>
       </c>
@@ -29173,7 +29184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="15.75" hidden="1">
+    <row r="703" spans="1:8" hidden="1">
       <c r="A703" t="s">
         <v>60</v>
       </c>
@@ -29184,7 +29195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="15.75" hidden="1">
+    <row r="704" spans="1:8" hidden="1">
       <c r="G704" t="s">
         <v>60</v>
       </c>
@@ -29192,224 +29203,224 @@
         <v>58</v>
       </c>
     </row>
-    <row r="706" ht="15.75" hidden="1"/>
-    <row r="707" ht="15.75" hidden="1"/>
-    <row r="708" ht="15.75" hidden="1"/>
-    <row r="709" ht="15.75" hidden="1"/>
-    <row r="710" ht="15.75" hidden="1"/>
-    <row r="711" ht="15.75" hidden="1"/>
-    <row r="712" ht="15.75" hidden="1"/>
-    <row r="713" ht="15.75" hidden="1"/>
-    <row r="714" ht="15.75" hidden="1"/>
-    <row r="715" ht="15.75" hidden="1"/>
-    <row r="716" ht="15.75" hidden="1"/>
-    <row r="717" ht="15.75" hidden="1"/>
-    <row r="718" ht="15.75" hidden="1"/>
-    <row r="719" ht="15.75" hidden="1"/>
-    <row r="720" ht="15.75" hidden="1"/>
-    <row r="721" ht="15.75" hidden="1"/>
-    <row r="722" ht="15.75" hidden="1"/>
-    <row r="723" ht="15.75" hidden="1"/>
-    <row r="724" ht="15.75" hidden="1"/>
-    <row r="725" ht="15.75" hidden="1"/>
-    <row r="726" ht="15.75" hidden="1"/>
-    <row r="727" ht="15.75" hidden="1"/>
-    <row r="728" ht="15.75" hidden="1"/>
-    <row r="729" ht="15.75" hidden="1"/>
-    <row r="730" ht="15.75" hidden="1"/>
-    <row r="731" ht="15.75" hidden="1"/>
-    <row r="732" ht="15.75" hidden="1"/>
-    <row r="733" ht="15.75" hidden="1"/>
-    <row r="734" ht="15.75" hidden="1"/>
-    <row r="735" ht="15.75" hidden="1"/>
-    <row r="736" ht="15.75" hidden="1"/>
-    <row r="737" ht="15.75" hidden="1"/>
-    <row r="738" ht="15.75" hidden="1"/>
-    <row r="739" ht="15.75" hidden="1"/>
-    <row r="740" ht="15.75" hidden="1"/>
-    <row r="741" ht="15.75" hidden="1"/>
-    <row r="742" ht="15.75" hidden="1"/>
-    <row r="743" ht="15.75" hidden="1"/>
-    <row r="744" ht="15.75" hidden="1"/>
-    <row r="745" ht="15.75" hidden="1"/>
-    <row r="746" ht="15.75" hidden="1"/>
-    <row r="747" ht="15.75" hidden="1"/>
-    <row r="748" ht="15.75" hidden="1"/>
-    <row r="749" ht="15.75" hidden="1"/>
-    <row r="750" ht="15.75" hidden="1"/>
-    <row r="751" ht="15.75" hidden="1"/>
-    <row r="752" ht="15.75" hidden="1"/>
-    <row r="753" ht="15.75" hidden="1"/>
-    <row r="754" ht="15.75" hidden="1"/>
-    <row r="755" ht="15.75" hidden="1"/>
-    <row r="756" ht="15.75" hidden="1"/>
-    <row r="757" ht="15.75" hidden="1"/>
-    <row r="758" ht="15.75" hidden="1"/>
-    <row r="759" ht="15.75" hidden="1"/>
-    <row r="760" ht="15.75" hidden="1"/>
-    <row r="761" ht="15.75" hidden="1"/>
-    <row r="762" ht="15.75" hidden="1"/>
-    <row r="763" ht="15.75" hidden="1"/>
-    <row r="764" ht="15.75" hidden="1"/>
-    <row r="765" ht="15.75" hidden="1"/>
-    <row r="766" ht="15.75" hidden="1"/>
-    <row r="767" ht="15.75" hidden="1"/>
-    <row r="768" ht="15.75" hidden="1"/>
-    <row r="769" ht="15.75" hidden="1"/>
-    <row r="770" ht="15.75" hidden="1"/>
-    <row r="771" ht="15.75" hidden="1"/>
-    <row r="772" ht="15.75" hidden="1"/>
-    <row r="773" ht="15.75" hidden="1"/>
-    <row r="774" ht="15.75" hidden="1"/>
-    <row r="775" ht="15.75" hidden="1"/>
-    <row r="776" ht="15.75" hidden="1"/>
-    <row r="777" ht="15.75" hidden="1"/>
-    <row r="778" ht="15.75" hidden="1"/>
-    <row r="779" ht="15.75" hidden="1"/>
-    <row r="780" ht="15.75" hidden="1"/>
-    <row r="781" ht="15.75" hidden="1"/>
-    <row r="782" ht="15.75" hidden="1"/>
-    <row r="783" ht="15.75" hidden="1"/>
-    <row r="784" ht="15.75" hidden="1"/>
-    <row r="785" ht="15.75" hidden="1"/>
-    <row r="786" ht="15.75" hidden="1"/>
-    <row r="787" ht="15.75" hidden="1"/>
-    <row r="788" ht="15.75" hidden="1"/>
-    <row r="789" ht="15.75" hidden="1"/>
-    <row r="790" ht="15.75" hidden="1"/>
-    <row r="791" ht="15.75" hidden="1"/>
-    <row r="792" ht="15.75" hidden="1"/>
-    <row r="793" ht="15.75" hidden="1"/>
-    <row r="794" ht="15.75" hidden="1"/>
-    <row r="795" ht="15.75" hidden="1"/>
-    <row r="796" ht="15.75" hidden="1"/>
-    <row r="797" ht="15.75" hidden="1"/>
-    <row r="798" ht="15.75" hidden="1"/>
-    <row r="799" ht="15.75" hidden="1"/>
-    <row r="800" ht="15.75" hidden="1"/>
-    <row r="801" ht="15.75" hidden="1"/>
-    <row r="802" ht="15.75" hidden="1"/>
-    <row r="803" ht="15.75" hidden="1"/>
-    <row r="804" ht="15.75" hidden="1"/>
-    <row r="805" ht="15.75" hidden="1"/>
-    <row r="806" ht="15.75" hidden="1"/>
-    <row r="807" ht="15.75" hidden="1"/>
-    <row r="808" ht="15.75" hidden="1"/>
-    <row r="809" ht="15.75" hidden="1"/>
-    <row r="810" ht="15.75" hidden="1"/>
-    <row r="811" ht="15.75" hidden="1"/>
-    <row r="812" ht="15.75" hidden="1"/>
-    <row r="813" ht="15.75" hidden="1"/>
-    <row r="814" ht="15.75" hidden="1"/>
-    <row r="815" ht="15.75" hidden="1"/>
-    <row r="816" ht="15.75" hidden="1"/>
-    <row r="817" ht="15.75" hidden="1"/>
-    <row r="818" ht="15.75" hidden="1"/>
-    <row r="819" ht="15.75" hidden="1"/>
-    <row r="820" ht="15.75" hidden="1"/>
-    <row r="821" ht="15.75" hidden="1"/>
-    <row r="822" ht="15.75" hidden="1"/>
-    <row r="823" ht="15.75" hidden="1"/>
-    <row r="824" ht="15.75" hidden="1"/>
-    <row r="825" ht="15.75" hidden="1"/>
-    <row r="826" ht="15.75" hidden="1"/>
-    <row r="827" ht="15.75" hidden="1"/>
-    <row r="828" ht="15.75" hidden="1"/>
-    <row r="829" ht="15.75" hidden="1"/>
-    <row r="830" ht="15.75" hidden="1"/>
-    <row r="831" ht="15.75" hidden="1"/>
-    <row r="832" ht="15.75" hidden="1"/>
-    <row r="833" ht="15.75" hidden="1"/>
-    <row r="834" ht="15.75" hidden="1"/>
-    <row r="835" ht="15.75" hidden="1"/>
-    <row r="836" ht="15.75" hidden="1"/>
-    <row r="837" ht="15.75" hidden="1"/>
-    <row r="838" ht="15.75" hidden="1"/>
-    <row r="839" ht="15.75" hidden="1"/>
-    <row r="840" ht="15.75" hidden="1"/>
-    <row r="841" ht="15.75" hidden="1"/>
-    <row r="842" ht="15.75" hidden="1"/>
-    <row r="843" ht="15.75" hidden="1"/>
-    <row r="844" ht="15.75" hidden="1"/>
-    <row r="845" ht="15.75" hidden="1"/>
-    <row r="846" ht="15.75" hidden="1"/>
-    <row r="847" ht="15.75" hidden="1"/>
-    <row r="848" ht="15.75" hidden="1"/>
-    <row r="849" ht="15.75" hidden="1"/>
-    <row r="850" ht="15.75" hidden="1"/>
-    <row r="851" ht="15.75" hidden="1"/>
-    <row r="852" ht="15.75" hidden="1"/>
-    <row r="853" ht="15.75" hidden="1"/>
-    <row r="854" ht="15.75" hidden="1"/>
-    <row r="855" ht="15.75" hidden="1"/>
-    <row r="856" ht="15.75" hidden="1"/>
-    <row r="857" ht="15.75" hidden="1"/>
-    <row r="858" ht="15.75" hidden="1"/>
-    <row r="859" ht="15.75" hidden="1"/>
-    <row r="860" ht="15.75" hidden="1"/>
-    <row r="861" ht="15.75" hidden="1"/>
-    <row r="862" ht="15.75" hidden="1"/>
-    <row r="863" ht="15.75" hidden="1"/>
-    <row r="864" ht="15.75" hidden="1"/>
-    <row r="865" ht="15.75" hidden="1"/>
-    <row r="866" ht="15.75" hidden="1"/>
-    <row r="867" ht="15.75" hidden="1"/>
-    <row r="868" ht="15.75" hidden="1"/>
-    <row r="869" ht="15.75" hidden="1"/>
-    <row r="870" ht="15.75" hidden="1"/>
-    <row r="871" ht="15.75" hidden="1"/>
-    <row r="872" ht="15.75" hidden="1"/>
-    <row r="873" ht="15.75" hidden="1"/>
-    <row r="874" ht="15.75" hidden="1"/>
-    <row r="875" ht="15.75" hidden="1"/>
-    <row r="876" ht="15.75" hidden="1"/>
-    <row r="877" ht="15.75" hidden="1"/>
-    <row r="878" ht="15.75" hidden="1"/>
-    <row r="879" ht="15.75" hidden="1"/>
-    <row r="880" ht="15.75" hidden="1"/>
-    <row r="881" ht="15.75" hidden="1"/>
-    <row r="882" ht="15.75" hidden="1"/>
-    <row r="883" ht="15.75" hidden="1"/>
-    <row r="884" ht="15.75" hidden="1"/>
-    <row r="885" ht="15.75" hidden="1"/>
-    <row r="886" ht="15.75" hidden="1"/>
-    <row r="887" ht="15.75" hidden="1"/>
-    <row r="888" ht="15.75" hidden="1"/>
-    <row r="889" ht="15.75" hidden="1"/>
-    <row r="890" ht="15.75" hidden="1"/>
-    <row r="891" ht="15.75" hidden="1"/>
-    <row r="892" ht="15.75" hidden="1"/>
-    <row r="893" ht="15.75" hidden="1"/>
-    <row r="894" ht="15.75" hidden="1"/>
-    <row r="895" ht="15.75" hidden="1"/>
-    <row r="896" ht="15.75" hidden="1"/>
-    <row r="897" ht="15.75" hidden="1"/>
-    <row r="898" ht="15.75" hidden="1"/>
-    <row r="899" ht="15.75" hidden="1"/>
-    <row r="900" ht="15.75" hidden="1"/>
-    <row r="901" ht="15.75" hidden="1"/>
-    <row r="902" ht="15.75" hidden="1"/>
-    <row r="903" ht="15.75" hidden="1"/>
-    <row r="904" ht="15.75" hidden="1"/>
-    <row r="905" ht="15.75" hidden="1"/>
-    <row r="906" ht="15.75" hidden="1"/>
-    <row r="907" ht="15.75" hidden="1"/>
-    <row r="908" ht="15.75" hidden="1"/>
-    <row r="909" ht="15.75" hidden="1"/>
-    <row r="910" ht="15.75" hidden="1"/>
-    <row r="911" ht="15.75" hidden="1"/>
-    <row r="912" ht="15.75" hidden="1"/>
-    <row r="913" ht="15.75" hidden="1"/>
-    <row r="914" ht="15.75" hidden="1"/>
-    <row r="915" ht="15.75" hidden="1"/>
-    <row r="916" ht="15.75" hidden="1"/>
-    <row r="917" ht="15.75" hidden="1"/>
-    <row r="918" ht="15.75" hidden="1"/>
-    <row r="919" ht="15.75" hidden="1"/>
-    <row r="920" ht="15.75" hidden="1"/>
-    <row r="921" ht="15.75" hidden="1"/>
-    <row r="922" ht="15.75" hidden="1"/>
-    <row r="923" ht="15.75" hidden="1"/>
+    <row r="706" hidden="1"/>
+    <row r="707" hidden="1"/>
+    <row r="708" hidden="1"/>
+    <row r="709" hidden="1"/>
+    <row r="710" hidden="1"/>
+    <row r="711" hidden="1"/>
+    <row r="712" hidden="1"/>
+    <row r="713" hidden="1"/>
+    <row r="714" hidden="1"/>
+    <row r="715" hidden="1"/>
+    <row r="716" hidden="1"/>
+    <row r="717" hidden="1"/>
+    <row r="718" hidden="1"/>
+    <row r="719" hidden="1"/>
+    <row r="720" hidden="1"/>
+    <row r="721" hidden="1"/>
+    <row r="722" hidden="1"/>
+    <row r="723" hidden="1"/>
+    <row r="724" hidden="1"/>
+    <row r="725" hidden="1"/>
+    <row r="726" hidden="1"/>
+    <row r="727" hidden="1"/>
+    <row r="728" hidden="1"/>
+    <row r="729" hidden="1"/>
+    <row r="730" hidden="1"/>
+    <row r="731" hidden="1"/>
+    <row r="732" hidden="1"/>
+    <row r="733" hidden="1"/>
+    <row r="734" hidden="1"/>
+    <row r="735" hidden="1"/>
+    <row r="736" hidden="1"/>
+    <row r="737" hidden="1"/>
+    <row r="738" hidden="1"/>
+    <row r="739" hidden="1"/>
+    <row r="740" hidden="1"/>
+    <row r="741" hidden="1"/>
+    <row r="742" hidden="1"/>
+    <row r="743" hidden="1"/>
+    <row r="744" hidden="1"/>
+    <row r="745" hidden="1"/>
+    <row r="746" hidden="1"/>
+    <row r="747" hidden="1"/>
+    <row r="748" hidden="1"/>
+    <row r="749" hidden="1"/>
+    <row r="750" hidden="1"/>
+    <row r="751" hidden="1"/>
+    <row r="752" hidden="1"/>
+    <row r="753" hidden="1"/>
+    <row r="754" hidden="1"/>
+    <row r="755" hidden="1"/>
+    <row r="756" hidden="1"/>
+    <row r="757" hidden="1"/>
+    <row r="758" hidden="1"/>
+    <row r="759" hidden="1"/>
+    <row r="760" hidden="1"/>
+    <row r="761" hidden="1"/>
+    <row r="762" hidden="1"/>
+    <row r="763" hidden="1"/>
+    <row r="764" hidden="1"/>
+    <row r="765" hidden="1"/>
+    <row r="766" hidden="1"/>
+    <row r="767" hidden="1"/>
+    <row r="768" hidden="1"/>
+    <row r="769" hidden="1"/>
+    <row r="770" hidden="1"/>
+    <row r="771" hidden="1"/>
+    <row r="772" hidden="1"/>
+    <row r="773" hidden="1"/>
+    <row r="774" hidden="1"/>
+    <row r="775" hidden="1"/>
+    <row r="776" hidden="1"/>
+    <row r="777" hidden="1"/>
+    <row r="778" hidden="1"/>
+    <row r="779" hidden="1"/>
+    <row r="780" hidden="1"/>
+    <row r="781" hidden="1"/>
+    <row r="782" hidden="1"/>
+    <row r="783" hidden="1"/>
+    <row r="784" hidden="1"/>
+    <row r="785" hidden="1"/>
+    <row r="786" hidden="1"/>
+    <row r="787" hidden="1"/>
+    <row r="788" hidden="1"/>
+    <row r="789" hidden="1"/>
+    <row r="790" hidden="1"/>
+    <row r="791" hidden="1"/>
+    <row r="792" hidden="1"/>
+    <row r="793" hidden="1"/>
+    <row r="794" hidden="1"/>
+    <row r="795" hidden="1"/>
+    <row r="796" hidden="1"/>
+    <row r="797" hidden="1"/>
+    <row r="798" hidden="1"/>
+    <row r="799" hidden="1"/>
+    <row r="800" hidden="1"/>
+    <row r="801" hidden="1"/>
+    <row r="802" hidden="1"/>
+    <row r="803" hidden="1"/>
+    <row r="804" hidden="1"/>
+    <row r="805" hidden="1"/>
+    <row r="806" hidden="1"/>
+    <row r="807" hidden="1"/>
+    <row r="808" hidden="1"/>
+    <row r="809" hidden="1"/>
+    <row r="810" hidden="1"/>
+    <row r="811" hidden="1"/>
+    <row r="812" hidden="1"/>
+    <row r="813" hidden="1"/>
+    <row r="814" hidden="1"/>
+    <row r="815" hidden="1"/>
+    <row r="816" hidden="1"/>
+    <row r="817" hidden="1"/>
+    <row r="818" hidden="1"/>
+    <row r="819" hidden="1"/>
+    <row r="820" hidden="1"/>
+    <row r="821" hidden="1"/>
+    <row r="822" hidden="1"/>
+    <row r="823" hidden="1"/>
+    <row r="824" hidden="1"/>
+    <row r="825" hidden="1"/>
+    <row r="826" hidden="1"/>
+    <row r="827" hidden="1"/>
+    <row r="828" hidden="1"/>
+    <row r="829" hidden="1"/>
+    <row r="830" hidden="1"/>
+    <row r="831" hidden="1"/>
+    <row r="832" hidden="1"/>
+    <row r="833" hidden="1"/>
+    <row r="834" hidden="1"/>
+    <row r="835" hidden="1"/>
+    <row r="836" hidden="1"/>
+    <row r="837" hidden="1"/>
+    <row r="838" hidden="1"/>
+    <row r="839" hidden="1"/>
+    <row r="840" hidden="1"/>
+    <row r="841" hidden="1"/>
+    <row r="842" hidden="1"/>
+    <row r="843" hidden="1"/>
+    <row r="844" hidden="1"/>
+    <row r="845" hidden="1"/>
+    <row r="846" hidden="1"/>
+    <row r="847" hidden="1"/>
+    <row r="848" hidden="1"/>
+    <row r="849" hidden="1"/>
+    <row r="850" hidden="1"/>
+    <row r="851" hidden="1"/>
+    <row r="852" hidden="1"/>
+    <row r="853" hidden="1"/>
+    <row r="854" hidden="1"/>
+    <row r="855" hidden="1"/>
+    <row r="856" hidden="1"/>
+    <row r="857" hidden="1"/>
+    <row r="858" hidden="1"/>
+    <row r="859" hidden="1"/>
+    <row r="860" hidden="1"/>
+    <row r="861" hidden="1"/>
+    <row r="862" hidden="1"/>
+    <row r="863" hidden="1"/>
+    <row r="864" hidden="1"/>
+    <row r="865" hidden="1"/>
+    <row r="866" hidden="1"/>
+    <row r="867" hidden="1"/>
+    <row r="868" hidden="1"/>
+    <row r="869" hidden="1"/>
+    <row r="870" hidden="1"/>
+    <row r="871" hidden="1"/>
+    <row r="872" hidden="1"/>
+    <row r="873" hidden="1"/>
+    <row r="874" hidden="1"/>
+    <row r="875" hidden="1"/>
+    <row r="876" hidden="1"/>
+    <row r="877" hidden="1"/>
+    <row r="878" hidden="1"/>
+    <row r="879" hidden="1"/>
+    <row r="880" hidden="1"/>
+    <row r="881" hidden="1"/>
+    <row r="882" hidden="1"/>
+    <row r="883" hidden="1"/>
+    <row r="884" hidden="1"/>
+    <row r="885" hidden="1"/>
+    <row r="886" hidden="1"/>
+    <row r="887" hidden="1"/>
+    <row r="888" hidden="1"/>
+    <row r="889" hidden="1"/>
+    <row r="890" hidden="1"/>
+    <row r="891" hidden="1"/>
+    <row r="892" hidden="1"/>
+    <row r="893" hidden="1"/>
+    <row r="894" hidden="1"/>
+    <row r="895" hidden="1"/>
+    <row r="896" hidden="1"/>
+    <row r="897" hidden="1"/>
+    <row r="898" hidden="1"/>
+    <row r="899" hidden="1"/>
+    <row r="900" hidden="1"/>
+    <row r="901" hidden="1"/>
+    <row r="902" hidden="1"/>
+    <row r="903" hidden="1"/>
+    <row r="904" hidden="1"/>
+    <row r="905" hidden="1"/>
+    <row r="906" hidden="1"/>
+    <row r="907" hidden="1"/>
+    <row r="908" hidden="1"/>
+    <row r="909" hidden="1"/>
+    <row r="910" hidden="1"/>
+    <row r="911" hidden="1"/>
+    <row r="912" hidden="1"/>
+    <row r="913" hidden="1"/>
+    <row r="914" hidden="1"/>
+    <row r="915" hidden="1"/>
+    <row r="916" hidden="1"/>
+    <row r="917" hidden="1"/>
+    <row r="918" hidden="1"/>
+    <row r="919" hidden="1"/>
+    <row r="920" hidden="1"/>
+    <row r="921" hidden="1"/>
+    <row r="922" hidden="1"/>
+    <row r="923" hidden="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -29419,4 +29430,348 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>29.223482888888888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>23.100876111111113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>22.02449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>25.166311666666672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>29.009584666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>30.803050777777781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>14.772175777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>25.895802666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>24.362661111111109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>22.694071111111114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>29.948683666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>25.236487444444442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>31.557670222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>30.385979888888887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>29.559192777777771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>23.618460777777774</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>18.985174000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>30.583636555555561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>29.257498222222221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>27.143338000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>27.910828111111108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>33.287089444444447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>22.848519111111106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>34.639888444444438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>22.536098999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>25.556108999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>24.096667333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>25.873278999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>18.24694933333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>32.739319999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>21.090753777777778</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>25.751467333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34">
+        <v>23.890276999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <v>15.048741888888891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>33.759320333333328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37">
+        <v>20.861992999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38">
+        <v>22.785851222222224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39">
+        <v>27.705357111111109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>23.734909666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>